--- a/outputs/test-Primates.xlsx
+++ b/outputs/test-Primates.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="131">
   <si>
     <t>Row</t>
   </si>
@@ -429,7 +429,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -443,11 +443,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -455,6 +459,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2281,1792 +2289,1792 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.98548151025995123</v>
+        <v>0.98857878577473424</v>
       </c>
       <c r="C2">
-        <v>0.014518489740048804</v>
+        <v>0.011421214225265717</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.98577724261563471</v>
+        <v>0.9888339650932485</v>
       </c>
       <c r="C3">
-        <v>0.014222757384365264</v>
+        <v>0.011166034906751551</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.99346522527635805</v>
+        <v>0.99517328545696526</v>
       </c>
       <c r="C4">
-        <v>0.0065347747236419703</v>
+        <v>0.0048267145430347111</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.98583068359189774</v>
+        <v>0.98885829931257563</v>
       </c>
       <c r="C5">
-        <v>0.014169316408102215</v>
+        <v>0.011141700687424422</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.99256469431226191</v>
+        <v>0.99442569117893664</v>
       </c>
       <c r="C6">
-        <v>0.0074353056877380789</v>
+        <v>0.005574308821063358</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.98581771706828503</v>
+        <v>0.98885162836100304</v>
       </c>
       <c r="C7">
-        <v>0.014182282931714993</v>
+        <v>0.011148371638996955</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.99002542930746629</v>
+        <v>0.99237923342540812</v>
       </c>
       <c r="C8">
-        <v>0.0099745706925337598</v>
+        <v>0.0076207665745918352</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.9905224318563175</v>
+        <v>0.99288749540910504</v>
       </c>
       <c r="C9">
-        <v>0.0094775681436825229</v>
+        <v>0.0071125045908950069</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.98908514516792756</v>
+        <v>0.99152938502166077</v>
       </c>
       <c r="C10">
-        <v>0.010914854832072454</v>
+        <v>0.0084706149783392165</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.90065546834453569</v>
+        <v>0.9119068930802362</v>
       </c>
       <c r="C11">
-        <v>0.099344531655464335</v>
+        <v>0.088093106919763797</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.99047453515482287</v>
+        <v>0.99266094875775723</v>
       </c>
       <c r="C12">
-        <v>0.0095254648451770958</v>
+        <v>0.0073390512422427945</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.99463194962111989</v>
+        <v>0.9961325410148516</v>
       </c>
       <c r="C13">
-        <v>0.0053680503788801539</v>
+        <v>0.0038674589851483429</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.98579888948212857</v>
+        <v>0.98883727201583971</v>
       </c>
       <c r="C14">
-        <v>0.014201110517871466</v>
+        <v>0.011162727984160318</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.99575247914611609</v>
+        <v>0.99696109292263824</v>
       </c>
       <c r="C15">
-        <v>0.0042475208538839543</v>
+        <v>0.0030389070773618014</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.99224643448077277</v>
+        <v>0.99415433635028894</v>
       </c>
       <c r="C16">
-        <v>0.0077535655192272424</v>
+        <v>0.0058456636497110212</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.98851064514052545</v>
+        <v>0.99118413383270731</v>
       </c>
       <c r="C17">
-        <v>0.011489354859474594</v>
+        <v>0.0088158661672926419</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.98722469416701075</v>
+        <v>0.98997768124631425</v>
       </c>
       <c r="C18">
-        <v>0.012775305832989234</v>
+        <v>0.010022318753685765</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.98582221243735491</v>
+        <v>0.98885858361117707</v>
       </c>
       <c r="C19">
-        <v>0.01417778756264511</v>
+        <v>0.011141416388822987</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.99152619286023402</v>
+        <v>0.993636391912465</v>
       </c>
       <c r="C20">
-        <v>0.0084738071397659678</v>
+        <v>0.0063636080875350397</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.98838065043849743</v>
+        <v>0.99113827005741106</v>
       </c>
       <c r="C21">
-        <v>0.011619349561502613</v>
+        <v>0.0088617299425889518</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.9892743938140055</v>
+        <v>0.99175668849930665</v>
       </c>
       <c r="C22">
-        <v>0.010725606185994496</v>
+        <v>0.0082433115006933112</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.99412401654012095</v>
+        <v>0.99567588782347904</v>
       </c>
       <c r="C23">
-        <v>0.0058759834598790467</v>
+        <v>0.0043241121765210059</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.9952081133786701</v>
+        <v>0.99653160535397145</v>
       </c>
       <c r="C24">
-        <v>0.0047918866213298586</v>
+        <v>0.0034683946460284947</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.99257693118836299</v>
+        <v>0.99445473980608412</v>
       </c>
       <c r="C25">
-        <v>0.0074230688116369656</v>
+        <v>0.0055452601939159274</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.99295742776782137</v>
+        <v>0.99476328409226844</v>
       </c>
       <c r="C26">
-        <v>0.0070425722321786413</v>
+        <v>0.0052367159077315404</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.99450065056346293</v>
+        <v>0.99597439179776859</v>
       </c>
       <c r="C27">
-        <v>0.0054993494365370597</v>
+        <v>0.0040256082022314208</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.99284614034199881</v>
+        <v>0.99463026995344117</v>
       </c>
       <c r="C28">
-        <v>0.0071538596580012111</v>
+        <v>0.0053697300465588684</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.42329291582635831</v>
+        <v>0.42627322014057167</v>
       </c>
       <c r="C29">
-        <v>0.57670708417364169</v>
+        <v>0.57372677985942833</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.98734519793320008</v>
+        <v>0.99022820696597058</v>
       </c>
       <c r="C30">
-        <v>0.012654802066799911</v>
+        <v>0.0097717930340294173</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.99322846081675797</v>
+        <v>0.99498302873811117</v>
       </c>
       <c r="C31">
-        <v>0.0067715391832420258</v>
+        <v>0.0050169712618888555</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.99517124181298433</v>
+        <v>0.99652546659131569</v>
       </c>
       <c r="C32">
-        <v>0.0048287581870156294</v>
+        <v>0.0034745334086843369</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.99087740910479638</v>
+        <v>0.99311014665058495</v>
       </c>
       <c r="C33">
-        <v>0.0091225908952036246</v>
+        <v>0.0068898533494150494</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.98941203931678556</v>
+        <v>0.99190471178059347</v>
       </c>
       <c r="C34">
-        <v>0.010587960683214383</v>
+        <v>0.008095288219406558</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.98579565564173821</v>
+        <v>0.98883320338037828</v>
       </c>
       <c r="C35">
-        <v>0.014204344358261765</v>
+        <v>0.011166796619621683</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.99280084446018069</v>
+        <v>0.99464653705192563</v>
       </c>
       <c r="C36">
-        <v>0.0071991555398193451</v>
+        <v>0.0053534629480744044</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0.99140094016721625</v>
+        <v>0.99354753200818735</v>
       </c>
       <c r="C37">
-        <v>0.008599059832783789</v>
+        <v>0.0064524679918126979</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0.99014274712190642</v>
+        <v>0.99248809600280175</v>
       </c>
       <c r="C38">
-        <v>0.0098572528780936069</v>
+        <v>0.0075119039971982219</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0.99122896844621344</v>
+        <v>0.99337623311825451</v>
       </c>
       <c r="C39">
-        <v>0.0087710315537865083</v>
+        <v>0.0066237668817454732</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0.99124901070187943</v>
+        <v>0.99339191009052585</v>
       </c>
       <c r="C40">
-        <v>0.0087509892981205706</v>
+        <v>0.0066080899094741402</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0.98929318847470182</v>
+        <v>0.99176625128494567</v>
       </c>
       <c r="C41">
-        <v>0.010706811525298126</v>
+        <v>0.0082337487150542944</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0.9906359988172202</v>
+        <v>0.99288022451060665</v>
       </c>
       <c r="C42">
-        <v>0.0093640011827798384</v>
+        <v>0.0071197754893933601</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0.98968795020867084</v>
+        <v>0.99213764370311908</v>
       </c>
       <c r="C43">
-        <v>0.010312049791329173</v>
+        <v>0.0078623562968809547</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0.98582208237454327</v>
+        <v>0.98885590800399203</v>
       </c>
       <c r="C44">
-        <v>0.014177917625456775</v>
+        <v>0.01114409199600792</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.99102999401617442</v>
+        <v>0.9931987803099207</v>
       </c>
       <c r="C45">
-        <v>0.0089700059838256248</v>
+        <v>0.006801219690079313</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>0.98734867757116496</v>
+        <v>0.9902359848147485</v>
       </c>
       <c r="C46">
-        <v>0.012651322428835005</v>
+        <v>0.0097640151852514991</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>0.99792638617651719</v>
+        <v>0.99865534641426557</v>
       </c>
       <c r="C47">
-        <v>0.0020736138234828633</v>
+        <v>0.0013446535857344214</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>0.99785765347379785</v>
+        <v>0.99862097668064465</v>
       </c>
       <c r="C48">
-        <v>0.0021423465262021758</v>
+        <v>0.0013790233193553959</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>0.9917593558279697</v>
+        <v>0.99381411389647889</v>
       </c>
       <c r="C49">
-        <v>0.0082406441720302755</v>
+        <v>0.006185886103521109</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0.99692595678829965</v>
+        <v>0.99787932838536908</v>
       </c>
       <c r="C50">
-        <v>0.0030740432117002969</v>
+        <v>0.0021206716146309162</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>0.99581687921267359</v>
+        <v>0.99704128798940161</v>
       </c>
       <c r="C51">
-        <v>0.0041831207873264335</v>
+        <v>0.0029587120105983994</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0.99297311409059885</v>
+        <v>0.99480357063815783</v>
       </c>
       <c r="C52">
-        <v>0.0070268859094011092</v>
+        <v>0.0051964293618421437</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.98906667215295319</v>
+        <v>0.99160895466426191</v>
       </c>
       <c r="C53">
-        <v>0.010933327847046811</v>
+        <v>0.0083910453357380465</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>0.99480912780318653</v>
+        <v>0.99627449493437736</v>
       </c>
       <c r="C54">
-        <v>0.0051908721968134631</v>
+        <v>0.0037255050656226606</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0.99550563452882745</v>
+        <v>0.99687305567329809</v>
       </c>
       <c r="C55">
-        <v>0.0044943654711725551</v>
+        <v>0.0031269443267018656</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="7" t="s">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0.99466254414982613</v>
+        <v>0.996201645672398</v>
       </c>
       <c r="C56">
-        <v>0.0053374558501738129</v>
+        <v>0.0037983543276019663</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="7" t="s">
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0.9853158051152241</v>
+        <v>0.98874916214687025</v>
       </c>
       <c r="C57">
-        <v>0.014684194884775901</v>
+        <v>0.011250837853129782</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="7" t="s">
         <v>57</v>
       </c>
       <c r="B58">
-        <v>0.99144034425022376</v>
+        <v>0.99348408636956953</v>
       </c>
       <c r="C58">
-        <v>0.008559655749776237</v>
+        <v>0.0065159136304304404</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="7" t="s">
         <v>58</v>
       </c>
       <c r="B59">
-        <v>0.99201975795255759</v>
+        <v>0.9939726478654759</v>
       </c>
       <c r="C59">
-        <v>0.0079802420474423871</v>
+        <v>0.0060273521345241346</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="7" t="s">
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0.9911138023026812</v>
+        <v>0.9932251746386398</v>
       </c>
       <c r="C60">
-        <v>0.0088861976973187949</v>
+        <v>0.0067748253613601527</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0.9908882681718022</v>
+        <v>0.99301594185987929</v>
       </c>
       <c r="C61">
-        <v>0.0091117318281978259</v>
+        <v>0.0069840581401207193</v>
       </c>
       <c r="D61">
         <v>1</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="7" t="s">
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0.99100373799589736</v>
+        <v>0.99312381039733988</v>
       </c>
       <c r="C62">
-        <v>0.0089962620041026467</v>
+        <v>0.0068761896026600725</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0.99138312449653931</v>
+        <v>0.99344235339196563</v>
       </c>
       <c r="C63">
-        <v>0.0086168755034606685</v>
+        <v>0.0065576466080343974</v>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B64">
-        <v>0.99469397611419974</v>
+        <v>0.99621811976192209</v>
       </c>
       <c r="C64">
-        <v>0.0053060238858002214</v>
+        <v>0.0037818802380779185</v>
       </c>
       <c r="D64">
         <v>1</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0.98829833518983889</v>
+        <v>0.99094029322412247</v>
       </c>
       <c r="C65">
-        <v>0.011701664810161088</v>
+        <v>0.0090597067758775001</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0.98580480209544685</v>
+        <v>0.98885082517030032</v>
       </c>
       <c r="C66">
-        <v>0.014195197904553173</v>
+        <v>0.011149174829699737</v>
       </c>
       <c r="D66">
         <v>1</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B67">
-        <v>0.99776579950597288</v>
+        <v>0.99854146179941006</v>
       </c>
       <c r="C67">
-        <v>0.0022342004940270653</v>
+        <v>0.0014585382005899525</v>
       </c>
       <c r="D67">
         <v>1</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0.99695009468737894</v>
+        <v>0.99790150885474194</v>
       </c>
       <c r="C68">
-        <v>0.0030499053126211021</v>
+        <v>0.0020984911452581047</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B69">
-        <v>0.98580557049267059</v>
+        <v>0.98884245877225196</v>
       </c>
       <c r="C69">
-        <v>0.014194429507329355</v>
+        <v>0.011157541227748053</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B70">
-        <v>0.99050216103929312</v>
+        <v>0.9927388865807476</v>
       </c>
       <c r="C70">
-        <v>0.0094978389607069322</v>
+        <v>0.0072611134192524232</v>
       </c>
       <c r="D70">
         <v>1</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B71">
-        <v>0.98973697330758104</v>
+        <v>0.99207313369069394</v>
       </c>
       <c r="C71">
-        <v>0.010263026692418936</v>
+        <v>0.0079268663093060923</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B72">
-        <v>0.98925983817429841</v>
+        <v>0.99198391810454212</v>
       </c>
       <c r="C72">
-        <v>0.010740161825701595</v>
+        <v>0.008016081895457848</v>
       </c>
       <c r="D72">
         <v>1</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B73">
-        <v>0.98767795096694511</v>
+        <v>0.99036137871871721</v>
       </c>
       <c r="C73">
-        <v>0.01232204903305488</v>
+        <v>0.0096386212812827592</v>
       </c>
       <c r="D73">
         <v>1</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B74">
-        <v>0.98723153912452566</v>
+        <v>0.99004916032987955</v>
       </c>
       <c r="C74">
-        <v>0.012768460875474293</v>
+        <v>0.0099508396701204482</v>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B75">
-        <v>0.9737339420027149</v>
+        <v>0.97888633394785518</v>
       </c>
       <c r="C75">
-        <v>0.026266057997285149</v>
+        <v>0.02111366605214483</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="7" t="s">
         <v>75</v>
       </c>
       <c r="B76">
-        <v>0.99239778331538875</v>
+        <v>0.99427846806233433</v>
       </c>
       <c r="C76">
-        <v>0.0076022166846112351</v>
+        <v>0.0057215319376656415</v>
       </c>
       <c r="D76">
         <v>1</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="7" t="s">
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0.99092226245887716</v>
+        <v>0.99307721347530542</v>
       </c>
       <c r="C77">
-        <v>0.0090777375411228971</v>
+        <v>0.0069227865246945667</v>
       </c>
       <c r="D77">
         <v>1</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="7" t="s">
         <v>77</v>
       </c>
       <c r="B78">
-        <v>0.99178243257911292</v>
+        <v>0.99381884529009923</v>
       </c>
       <c r="C78">
-        <v>0.0082175674208871344</v>
+        <v>0.0061811547099007297</v>
       </c>
       <c r="D78">
         <v>1</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="7" t="s">
         <v>78</v>
       </c>
       <c r="B79">
-        <v>0.98581115962738675</v>
+        <v>0.9888449708208229</v>
       </c>
       <c r="C79">
-        <v>0.014188840372613207</v>
+        <v>0.011155029179177118</v>
       </c>
       <c r="D79">
         <v>1</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="7" t="s">
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0.9858142315334727</v>
+        <v>0.98885324341482883</v>
       </c>
       <c r="C80">
-        <v>0.014185768466527358</v>
+        <v>0.011146756585171162</v>
       </c>
       <c r="D80">
         <v>1</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="7" t="s">
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0.98149310095236231</v>
+        <v>0.98569263553015019</v>
       </c>
       <c r="C81">
-        <v>0.018506899047637727</v>
+        <v>0.014307364469849825</v>
       </c>
       <c r="D81">
         <v>1</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="7" t="s">
         <v>81</v>
       </c>
       <c r="B82">
-        <v>0.98613263494184267</v>
+        <v>0.98921373695071169</v>
       </c>
       <c r="C82">
-        <v>0.013867365058157366</v>
+        <v>0.010786263049288364</v>
       </c>
       <c r="D82">
         <v>1</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="7" t="s">
         <v>82</v>
       </c>
       <c r="B83">
-        <v>0.9889289022219675</v>
+        <v>0.99170648932453698</v>
       </c>
       <c r="C83">
-        <v>0.011071097778032536</v>
+        <v>0.0082935106754630609</v>
       </c>
       <c r="D83">
         <v>1</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="7" t="s">
         <v>83</v>
       </c>
       <c r="B84">
-        <v>0.99336514040252022</v>
+        <v>0.99509547346730565</v>
       </c>
       <c r="C84">
-        <v>0.0066348595974798086</v>
+        <v>0.0049045265326943038</v>
       </c>
       <c r="D84">
         <v>1</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="7" t="s">
         <v>84</v>
       </c>
       <c r="B85">
-        <v>0.98755942163075783</v>
+        <v>0.99039128867330728</v>
       </c>
       <c r="C85">
-        <v>0.012440578369242195</v>
+        <v>0.0096087113266927204</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="7" t="s">
         <v>85</v>
       </c>
       <c r="B86">
-        <v>0.99409371077137432</v>
+        <v>0.99564900639730414</v>
       </c>
       <c r="C86">
-        <v>0.0059062892286256569</v>
+        <v>0.004350993602695882</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="7" t="s">
         <v>86</v>
       </c>
       <c r="B87">
-        <v>0.98928903374009813</v>
+        <v>0.9917165383220643</v>
       </c>
       <c r="C87">
-        <v>0.01071096625990183</v>
+        <v>0.0082834616779357273</v>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="7" t="s">
         <v>87</v>
       </c>
       <c r="B88">
-        <v>0.98874953291194589</v>
+        <v>0.99124136250742856</v>
       </c>
       <c r="C88">
-        <v>0.011250467088054076</v>
+        <v>0.0087586374925714486</v>
       </c>
       <c r="D88">
         <v>1</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="7" t="s">
         <v>88</v>
       </c>
       <c r="B89">
-        <v>0.98518102973789456</v>
+        <v>0.98817602707543029</v>
       </c>
       <c r="C89">
-        <v>0.014818970262105395</v>
+        <v>0.01182397292456969</v>
       </c>
       <c r="D89">
         <v>1</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="7" t="s">
         <v>89</v>
       </c>
       <c r="B90">
-        <v>0.98785896633262837</v>
+        <v>0.9905190463431317</v>
       </c>
       <c r="C90">
-        <v>0.012141033667371579</v>
+        <v>0.0094809536568682736</v>
       </c>
       <c r="D90">
         <v>1</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="7" t="s">
         <v>90</v>
       </c>
       <c r="B91">
-        <v>0.99032822158972211</v>
+        <v>0.99259978655966508</v>
       </c>
       <c r="C91">
-        <v>0.0096717784102779408</v>
+        <v>0.0074002134403348746</v>
       </c>
       <c r="D91">
         <v>1</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="7" t="s">
         <v>91</v>
       </c>
       <c r="B92">
-        <v>0.99636910862935335</v>
+        <v>0.99746322454388436</v>
       </c>
       <c r="C92">
-        <v>0.0036308913706466325</v>
+        <v>0.0025367754561155895</v>
       </c>
       <c r="D92">
         <v>1</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B93">
-        <v>0.9943796398639243</v>
+        <v>0.99590130909985808</v>
       </c>
       <c r="C93">
-        <v>0.0056203601360756798</v>
+        <v>0.0040986909001418902</v>
       </c>
       <c r="D93">
         <v>1</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="7" t="s">
         <v>93</v>
       </c>
       <c r="B94">
-        <v>0.94064439782687626</v>
+        <v>0.95116754435336193</v>
       </c>
       <c r="C94">
-        <v>0.05935560217312371</v>
+        <v>0.048832455646638129</v>
       </c>
       <c r="D94">
         <v>1</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="7" t="s">
         <v>94</v>
       </c>
       <c r="B95">
-        <v>0.93063201418669839</v>
+        <v>0.94209480972143633</v>
       </c>
       <c r="C95">
-        <v>0.069367985813301586</v>
+        <v>0.057905190278563667</v>
       </c>
       <c r="D95">
         <v>1</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="7" t="s">
         <v>95</v>
       </c>
       <c r="B96">
-        <v>0.89578514541099241</v>
+        <v>0.90926008335547426</v>
       </c>
       <c r="C96">
-        <v>0.10421485458900757</v>
+        <v>0.090739916644525742</v>
       </c>
       <c r="D96">
         <v>1</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B97">
-        <v>0.99419114716754042</v>
+        <v>0.99576929759529786</v>
       </c>
       <c r="C97">
-        <v>0.0058088528324596184</v>
+        <v>0.0042307024047021887</v>
       </c>
       <c r="D97">
         <v>1</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B98">
-        <v>0.97654264659319534</v>
+        <v>0.98111631304285474</v>
       </c>
       <c r="C98">
-        <v>0.023457353406804653</v>
+        <v>0.018883686957145259</v>
       </c>
       <c r="D98">
         <v>1</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="7" t="s">
         <v>98</v>
       </c>
       <c r="B99">
-        <v>0.983131576661047</v>
+        <v>0.9868504038875463</v>
       </c>
       <c r="C99">
-        <v>0.016868423338953026</v>
+        <v>0.013149596112453688</v>
       </c>
       <c r="D99">
         <v>1</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="7" t="s">
         <v>99</v>
       </c>
       <c r="B100">
-        <v>0.99052560684568325</v>
+        <v>0.99303042580057876</v>
       </c>
       <c r="C100">
-        <v>0.0094743931543167584</v>
+        <v>0.0069695741994212791</v>
       </c>
       <c r="D100">
         <v>1</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="7" t="s">
         <v>100</v>
       </c>
       <c r="B101">
-        <v>0.99346184329044618</v>
+        <v>0.99513858047426984</v>
       </c>
       <c r="C101">
-        <v>0.006538156709553768</v>
+        <v>0.0048614195257301639</v>
       </c>
       <c r="D101">
         <v>1</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="7" t="s">
         <v>101</v>
       </c>
       <c r="B102">
-        <v>0.99161398081244134</v>
+        <v>0.99363162135664052</v>
       </c>
       <c r="C102">
-        <v>0.0083860191875586472</v>
+        <v>0.0063683786433594708</v>
       </c>
       <c r="D102">
         <v>1</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="3" t="s">
+      <c r="A103" s="7" t="s">
         <v>102</v>
       </c>
       <c r="B103">
-        <v>0.99359270531386545</v>
+        <v>0.99524067874242839</v>
       </c>
       <c r="C103">
-        <v>0.0064072946861345676</v>
+        <v>0.0047593212575716259</v>
       </c>
       <c r="D103">
         <v>1</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="3" t="s">
+      <c r="A104" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B104">
-        <v>0.98673712318476203</v>
+        <v>0.98950427686507303</v>
       </c>
       <c r="C104">
-        <v>0.013262876815237979</v>
+        <v>0.010495723134926978</v>
       </c>
       <c r="D104">
         <v>1</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="7" t="s">
         <v>104</v>
       </c>
       <c r="B105">
-        <v>0.99437744224531921</v>
+        <v>0.99588000466128179</v>
       </c>
       <c r="C105">
-        <v>0.0056225577546807912</v>
+        <v>0.0041199953387182423</v>
       </c>
       <c r="D105">
         <v>1</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="7" t="s">
         <v>105</v>
       </c>
       <c r="B106">
-        <v>0.9964807495778798</v>
+        <v>0.99754741898990718</v>
       </c>
       <c r="C106">
-        <v>0.0035192504221201459</v>
+        <v>0.0024525810100927753</v>
       </c>
       <c r="D106">
         <v>1</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B107">
-        <v>0.99192612108744505</v>
+        <v>0.9938793908601169</v>
       </c>
       <c r="C107">
-        <v>0.0080738789125550589</v>
+        <v>0.0061206091398830946</v>
       </c>
       <c r="D107">
         <v>1</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="3" t="s">
+      <c r="A108" s="7" t="s">
         <v>107</v>
       </c>
       <c r="B108">
-        <v>0.99494906789827464</v>
+        <v>0.99631750147426668</v>
       </c>
       <c r="C108">
-        <v>0.0050509321017253835</v>
+        <v>0.0036824985257332943</v>
       </c>
       <c r="D108">
         <v>1</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="7" t="s">
         <v>108</v>
       </c>
       <c r="B109">
-        <v>0.99424172106496134</v>
+        <v>0.99577085911783914</v>
       </c>
       <c r="C109">
-        <v>0.005758278935038658</v>
+        <v>0.0042291408821608688</v>
       </c>
       <c r="D109">
         <v>1</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="3" t="s">
+      <c r="A110" s="7" t="s">
         <v>109</v>
       </c>
       <c r="B110">
-        <v>0.99297884852024854</v>
+        <v>0.9947591473767653</v>
       </c>
       <c r="C110">
-        <v>0.0070211514797514103</v>
+        <v>0.0052408526232347579</v>
       </c>
       <c r="D110">
         <v>1</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="3" t="s">
+      <c r="A111" s="7" t="s">
         <v>110</v>
       </c>
       <c r="B111">
-        <v>0.99557240504796118</v>
+        <v>0.99684851908424554</v>
       </c>
       <c r="C111">
-        <v>0.0044275949520388696</v>
+        <v>0.0031514809157545021</v>
       </c>
       <c r="D111">
         <v>1</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="3" t="s">
+      <c r="A112" s="7" t="s">
         <v>111</v>
       </c>
       <c r="B112">
-        <v>0.98810621965095702</v>
+        <v>0.99082161047057438</v>
       </c>
       <c r="C112">
-        <v>0.011893780349043032</v>
+        <v>0.0091783895294256547</v>
       </c>
       <c r="D112">
         <v>1</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="3" t="s">
+      <c r="A113" s="7" t="s">
         <v>112</v>
       </c>
       <c r="B113">
-        <v>0.99261532486255033</v>
+        <v>0.99448925856619219</v>
       </c>
       <c r="C113">
-        <v>0.0073846751374496439</v>
+        <v>0.0055107414338078243</v>
       </c>
       <c r="D113">
         <v>1</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="3" t="s">
+      <c r="A114" s="7" t="s">
         <v>113</v>
       </c>
       <c r="B114">
-        <v>0.9891329903052879</v>
+        <v>0.9915941306423649</v>
       </c>
       <c r="C114">
-        <v>0.010867009694712116</v>
+        <v>0.0084058693576350933</v>
       </c>
       <c r="D114">
         <v>1</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="7" t="s">
         <v>114</v>
       </c>
       <c r="B115">
-        <v>0.99613825681937052</v>
+        <v>0.99729139392144062</v>
       </c>
       <c r="C115">
-        <v>0.0038617431806294744</v>
+        <v>0.0027086060785593883</v>
       </c>
       <c r="D115">
         <v>1</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="3" t="s">
+      <c r="A116" s="7" t="s">
         <v>115</v>
       </c>
       <c r="B116">
-        <v>0.9876166696147104</v>
+        <v>0.99025224816625168</v>
       </c>
       <c r="C116">
-        <v>0.01238333038528963</v>
+        <v>0.009747751833748276</v>
       </c>
       <c r="D116">
         <v>1</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="3" t="s">
+      <c r="A117" s="7" t="s">
         <v>116</v>
       </c>
       <c r="B117">
-        <v>0.98861795211203951</v>
+        <v>0.99123941201588905</v>
       </c>
       <c r="C117">
-        <v>0.011382047887960503</v>
+        <v>0.0087605879841109822</v>
       </c>
       <c r="D117">
         <v>1</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="3" t="s">
+      <c r="A118" s="7" t="s">
         <v>117</v>
       </c>
       <c r="B118">
-        <v>0.98843482450592068</v>
+        <v>0.99107379997293055</v>
       </c>
       <c r="C118">
-        <v>0.011565175494079366</v>
+        <v>0.0089262000270695016</v>
       </c>
       <c r="D118">
         <v>1</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="3" t="s">
+      <c r="A119" s="7" t="s">
         <v>118</v>
       </c>
       <c r="B119">
-        <v>0.98767211140112965</v>
+        <v>0.99043146551681638</v>
       </c>
       <c r="C119">
-        <v>0.012327888598870343</v>
+        <v>0.009568534483183613</v>
       </c>
       <c r="D119">
         <v>1</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="3" t="s">
+      <c r="A120" s="7" t="s">
         <v>119</v>
       </c>
       <c r="B120">
-        <v>0.98711557656168381</v>
+        <v>0.98995466762515139</v>
       </c>
       <c r="C120">
-        <v>0.01288442343831624</v>
+        <v>0.010045332374848568</v>
       </c>
       <c r="D120">
         <v>1</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="3" t="s">
+      <c r="A121" s="7" t="s">
         <v>120</v>
       </c>
       <c r="B121">
-        <v>0.99438085145659838</v>
+        <v>0.99588699229393973</v>
       </c>
       <c r="C121">
-        <v>0.0056191485434016111</v>
+        <v>0.0041130077060602946</v>
       </c>
       <c r="D121">
         <v>1</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="3" t="s">
+      <c r="A122" s="7" t="s">
         <v>121</v>
       </c>
       <c r="B122">
-        <v>0.99451505943018537</v>
+        <v>0.99599398800384187</v>
       </c>
       <c r="C122">
-        <v>0.0054849405698146007</v>
+        <v>0.0040060119961581051</v>
       </c>
       <c r="D122">
         <v>1</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="3" t="s">
+      <c r="A123" s="7" t="s">
         <v>122</v>
       </c>
       <c r="B123">
-        <v>0.99753704792416009</v>
+        <v>0.99833507175718994</v>
       </c>
       <c r="C123">
-        <v>0.0024629520758398665</v>
+        <v>0.0016649282428100537</v>
       </c>
       <c r="D123">
         <v>1</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="3" t="s">
+      <c r="A124" s="7" t="s">
         <v>123</v>
       </c>
       <c r="B124">
-        <v>0.99043573599236046</v>
+        <v>0.99264745025395551</v>
       </c>
       <c r="C124">
-        <v>0.0095642640076395759</v>
+        <v>0.0073525497460444544</v>
       </c>
       <c r="D124">
         <v>1</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="7" t="s">
         <v>124</v>
       </c>
       <c r="B125">
-        <v>0.99492420104115442</v>
+        <v>0.99629460541971593</v>
       </c>
       <c r="C125">
-        <v>0.005075798958845525</v>
+        <v>0.0037053945802840871</v>
       </c>
       <c r="D125">
         <v>1</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="3" t="s">
+      <c r="A126" s="7" t="s">
         <v>125</v>
       </c>
       <c r="B126">
-        <v>0.99292764188120552</v>
+        <v>0.99470460246530001</v>
       </c>
       <c r="C126">
-        <v>0.0070723581187944334</v>
+        <v>0.0052953975346999322</v>
       </c>
       <c r="D126">
         <v>1</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="3" t="s">
+      <c r="A127" s="7" t="s">
         <v>126</v>
       </c>
       <c r="B127">
-        <v>0.98752459505617962</v>
+        <v>0.99023092316895789</v>
       </c>
       <c r="C127">
-        <v>0.012475404943820427</v>
+        <v>0.0097690768310420961</v>
       </c>
       <c r="D127">
         <v>1</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="3" t="s">
+      <c r="A128" s="7" t="s">
         <v>127</v>
       </c>
       <c r="B128">
-        <v>0.99182251025954582</v>
+        <v>0.99410246588404338</v>
       </c>
       <c r="C128">
-        <v>0.0081774897404541923</v>
+        <v>0.0058975341159565754</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -4083,1797 +4091,1797 @@
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="true"/>
     <col min="2" max="2" width="12.85546875" customWidth="true"/>
-    <col min="3" max="3" width="14.7109375" customWidth="true"/>
+    <col min="3" max="3" width="15.7109375" customWidth="true"/>
     <col min="4" max="4" width="10.28515625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.98092558523859952</v>
+        <v>0.99164415618616286</v>
       </c>
       <c r="C2">
-        <v>0.019074414761400489</v>
+        <v>0.0083558438138371643</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.98092052912810757</v>
+        <v>0.9916414338888434</v>
       </c>
       <c r="C3">
-        <v>0.019079470871892445</v>
+        <v>0.008358566111156639</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.99038760119597569</v>
+        <v>0.99639285331340899</v>
       </c>
       <c r="C4">
-        <v>0.0096123988040242928</v>
+        <v>0.0036071466865909988</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.98091224921327425</v>
+        <v>0.99163697546850305</v>
       </c>
       <c r="C5">
-        <v>0.019087750786725748</v>
+        <v>0.0083630245314969646</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.98664267182303933</v>
+        <v>0.99460364832478443</v>
       </c>
       <c r="C6">
-        <v>0.013357328176960646</v>
+        <v>0.0053963516752155187</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.9809357075707843</v>
+        <v>0.99164960570846439</v>
       </c>
       <c r="C7">
-        <v>0.019064292429215729</v>
+        <v>0.0083503942915355792</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.9829422123861572</v>
+        <v>0.99271589438955421</v>
       </c>
       <c r="C8">
-        <v>0.017057787613842801</v>
+        <v>0.0072841056104458249</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.98438408567162516</v>
+        <v>0.99346419832075272</v>
       </c>
       <c r="C9">
-        <v>0.015615914328374794</v>
+        <v>0.006535801679247227</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.98731994575974469</v>
+        <v>0.99493698499957539</v>
       </c>
       <c r="C10">
-        <v>0.012680054240255364</v>
+        <v>0.0050630150004246531</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.96295238576423425</v>
+        <v>0.98105026379993321</v>
       </c>
       <c r="C11">
-        <v>0.037047614235765754</v>
+        <v>0.018949736200066777</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.99017387438758842</v>
+        <v>0.99629450693478627</v>
       </c>
       <c r="C12">
-        <v>0.0098261256124115518</v>
+        <v>0.0037054930652137517</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.98818542177272395</v>
+        <v>0.99535695769256949</v>
       </c>
       <c r="C13">
-        <v>0.01181457822727606</v>
+        <v>0.004643042307430548</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.98090386677972841</v>
+        <v>0.99163246137654604</v>
       </c>
       <c r="C14">
-        <v>0.019096133220271587</v>
+        <v>0.0083675386234539541</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.99206320859086117</v>
+        <v>0.99714593072930491</v>
       </c>
       <c r="C15">
-        <v>0.0079367914091387944</v>
+        <v>0.0028540692706950513</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.98987855174373907</v>
+        <v>0.99615780894099526</v>
       </c>
       <c r="C16">
-        <v>0.01012144825626095</v>
+        <v>0.0038421910590047338</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.98267467395730135</v>
+        <v>0.99257535959068799</v>
       </c>
       <c r="C17">
-        <v>0.017325326042698645</v>
+        <v>0.0074246404093120649</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.98091106962520391</v>
+        <v>0.99163634026754621</v>
       </c>
       <c r="C18">
-        <v>0.019088930374796118</v>
+        <v>0.0083636597324537407</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.9820330977047006</v>
+        <v>0.99223626278154897</v>
       </c>
       <c r="C19">
-        <v>0.017966902295299441</v>
+        <v>0.0077637372184510139</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.98947092842655326</v>
+        <v>0.99596762808304196</v>
       </c>
       <c r="C20">
-        <v>0.010529071573446739</v>
+        <v>0.0040323719169580328</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.98091958699494031</v>
+        <v>0.99164092660906511</v>
       </c>
       <c r="C21">
-        <v>0.019080413005059672</v>
+        <v>0.0083590733909349353</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.98091263004712659</v>
+        <v>0.9916371805432056</v>
       </c>
       <c r="C22">
-        <v>0.019087369952873454</v>
+        <v>0.0083628194567944257</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.99236685578979267</v>
+        <v>0.9972787774917109</v>
       </c>
       <c r="C23">
-        <v>0.0076331442102073434</v>
+        <v>0.0027212225082890477</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.99222224168191464</v>
+        <v>0.99721565458047068</v>
       </c>
       <c r="C24">
-        <v>0.0077777583180853966</v>
+        <v>0.0027843454195293012</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.99083968270389011</v>
+        <v>0.99659922706511617</v>
       </c>
       <c r="C25">
-        <v>0.0091603172961098826</v>
+        <v>0.0034007729348838347</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.992045535972927</v>
+        <v>0.99713816297190583</v>
       </c>
       <c r="C26">
-        <v>0.0079544640270729737</v>
+        <v>0.0028618370280942022</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.99283699381406654</v>
+        <v>0.99748210423871297</v>
       </c>
       <c r="C27">
-        <v>0.0071630061859334349</v>
+        <v>0.0025178957612870733</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.99155642187970672</v>
+        <v>0.99692164981247011</v>
       </c>
       <c r="C28">
-        <v>0.0084435781202932634</v>
+        <v>0.0030783501875299053</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.9808826824437108</v>
+        <v>0.99162105112568866</v>
       </c>
       <c r="C29">
-        <v>0.019117317556289183</v>
+        <v>0.0083789488743113167</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.98457839943037229</v>
+        <v>0.99356383801726633</v>
       </c>
       <c r="C30">
-        <v>0.015421600569627728</v>
+        <v>0.0064361619827337175</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.99242769944983167</v>
+        <v>0.99730525482867338</v>
       </c>
       <c r="C31">
-        <v>0.0075723005501683264</v>
+        <v>0.0026947451713266448</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.99306985329811548</v>
+        <v>0.99758171394845796</v>
       </c>
       <c r="C32">
-        <v>0.0069301467018845608</v>
+        <v>0.0024182860515420948</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.98263676997222105</v>
+        <v>0.99255540736843184</v>
       </c>
       <c r="C33">
-        <v>0.017363230027779005</v>
+        <v>0.00744459263156817</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.98286631310678763</v>
+        <v>0.99267607794347712</v>
       </c>
       <c r="C34">
-        <v>0.017133686893212412</v>
+        <v>0.0073239220565228819</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.98121634515009093</v>
+        <v>0.9918004162896652</v>
       </c>
       <c r="C35">
-        <v>0.018783654849909039</v>
+        <v>0.0081995837103348533</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.98979512412979032</v>
+        <v>0.99611902538832897</v>
       </c>
       <c r="C36">
-        <v>0.010204875870209656</v>
+        <v>0.0038809746116710668</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0.99018190802659378</v>
+        <v>0.99629821253090922</v>
       </c>
       <c r="C37">
-        <v>0.0098180919734061692</v>
+        <v>0.0037017874690907383</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0.98892376671409288</v>
+        <v>0.99570968453737152</v>
       </c>
       <c r="C38">
-        <v>0.011076233285907068</v>
+        <v>0.0042903154626284514</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0.99119869998783761</v>
+        <v>0.99676147655910774</v>
       </c>
       <c r="C39">
-        <v>0.0088013000121623646</v>
+        <v>0.0032385234408922859</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0.99016761846887702</v>
+        <v>0.99629162085007594</v>
       </c>
       <c r="C40">
-        <v>0.0098323815311230339</v>
+        <v>0.003708379149924028</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0.98804981338412601</v>
+        <v>0.99529160986395337</v>
       </c>
       <c r="C41">
-        <v>0.011950186615874008</v>
+        <v>0.0047083901360466104</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0.98957749309645593</v>
+        <v>0.99601751269479444</v>
       </c>
       <c r="C42">
-        <v>0.010422506903544047</v>
+        <v>0.0039824873052056097</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0.98688197928651578</v>
+        <v>0.99472188829609287</v>
       </c>
       <c r="C43">
-        <v>0.013118020713484243</v>
+        <v>0.005278111703907116</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0.98367880798338647</v>
+        <v>0.99310011707397561</v>
       </c>
       <c r="C44">
-        <v>0.016321192016613532</v>
+        <v>0.0068998829260243965</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.98761923846287891</v>
+        <v>0.99508299149040991</v>
       </c>
       <c r="C45">
-        <v>0.012380761537121084</v>
+        <v>0.004917008509590118</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>0.98487546798770509</v>
+        <v>0.99371559872350179</v>
       </c>
       <c r="C46">
-        <v>0.01512453201229487</v>
+        <v>0.006284401276498203</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="9" t="s">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>0.99707118260560046</v>
+        <v>0.99915410815958883</v>
       </c>
       <c r="C47">
-        <v>0.0029288173943994925</v>
+        <v>0.00084589184041120968</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>0.99787839674456302</v>
+        <v>0.99942882798504529</v>
       </c>
       <c r="C48">
-        <v>0.0021216032554370011</v>
+        <v>0.00057117201495467508</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="9" t="s">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>0.98681012236298693</v>
+        <v>0.99468643656028954</v>
       </c>
       <c r="C49">
-        <v>0.013189877637013098</v>
+        <v>0.0053135634397104758</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0.9941049130746602</v>
+        <v>0.99801510872123012</v>
       </c>
       <c r="C50">
-        <v>0.005895086925339829</v>
+        <v>0.00198489127876983</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>0.99126665127731439</v>
+        <v>0.99679201821523944</v>
       </c>
       <c r="C51">
-        <v>0.0087333487226855765</v>
+        <v>0.0032079817847605377</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="9" t="s">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0.99108223746244428</v>
+        <v>0.99670900615233948</v>
       </c>
       <c r="C52">
-        <v>0.0089177625375557266</v>
+        <v>0.0032909938476605024</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="9" t="s">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.9842750930749794</v>
+        <v>0.99340818161377764</v>
       </c>
       <c r="C53">
-        <v>0.015724906925020581</v>
+        <v>0.0065918183862223598</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="9" t="s">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>0.98869505927948764</v>
+        <v>0.99560098721267332</v>
       </c>
       <c r="C54">
-        <v>0.011304940720512316</v>
+        <v>0.0043990127873267228</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0.9939964367343237</v>
+        <v>0.99797043798731722</v>
       </c>
       <c r="C55">
-        <v>0.0060035632656763524</v>
+        <v>0.002029562012682791</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="9" t="s">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0.99226656417047321</v>
+        <v>0.99723502945172982</v>
       </c>
       <c r="C56">
-        <v>0.0077334358295268</v>
+        <v>0.0027649705482701769</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0.98091377520682033</v>
+        <v>0.99163779719281941</v>
       </c>
       <c r="C57">
-        <v>0.019086224793179698</v>
+        <v>0.008362202807180549</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="9" t="s">
         <v>57</v>
       </c>
       <c r="B58">
-        <v>0.98503519501263659</v>
+        <v>0.99379690960349376</v>
       </c>
       <c r="C58">
-        <v>0.014964804987363436</v>
+        <v>0.0062030903965062884</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B59">
-        <v>0.98663198811183284</v>
+        <v>0.99459835803194352</v>
       </c>
       <c r="C59">
-        <v>0.013368011888167218</v>
+        <v>0.0054016419680565355</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="9" t="s">
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0.98520184534755306</v>
+        <v>0.99388152854274603</v>
       </c>
       <c r="C60">
-        <v>0.014798154652446948</v>
+        <v>0.0061184714572539572</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="9" t="s">
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0.98610785752562158</v>
+        <v>0.99433762611033316</v>
       </c>
       <c r="C61">
-        <v>0.013892142474378368</v>
+        <v>0.0056623738896668706</v>
       </c>
       <c r="D61">
         <v>1</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="9" t="s">
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0.9844531170301043</v>
+        <v>0.99349962955404347</v>
       </c>
       <c r="C62">
-        <v>0.015546882969895658</v>
+        <v>0.006500370445956553</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="9" t="s">
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0.98724557185768558</v>
+        <v>0.99490057778977803</v>
       </c>
       <c r="C63">
-        <v>0.012754428142314384</v>
+        <v>0.0050994222102219199</v>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="9" t="s">
         <v>63</v>
       </c>
       <c r="B64">
-        <v>0.99041933519691971</v>
+        <v>0.99640741342717543</v>
       </c>
       <c r="C64">
-        <v>0.0095806648030803045</v>
+        <v>0.0035925865728245318</v>
       </c>
       <c r="D64">
         <v>1</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="9" t="s">
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0.98487474104780748</v>
+        <v>0.99371522820482205</v>
       </c>
       <c r="C65">
-        <v>0.015125258952192484</v>
+        <v>0.0062847717951779562</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="9" t="s">
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0.98091146570013243</v>
+        <v>0.99163655355251368</v>
       </c>
       <c r="C66">
-        <v>0.019088534299867538</v>
+        <v>0.0083634464474862721</v>
       </c>
       <c r="D66">
         <v>1</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="9" t="s">
         <v>66</v>
       </c>
       <c r="B67">
-        <v>0.99690557209209618</v>
+        <v>0.99909547801965126</v>
       </c>
       <c r="C67">
-        <v>0.0030944279079038401</v>
+        <v>0.00090452198034875815</v>
       </c>
       <c r="D67">
         <v>1</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="9" t="s">
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0.99118830535294278</v>
+        <v>0.99675679980315335</v>
       </c>
       <c r="C68">
-        <v>0.0088116946470572066</v>
+        <v>0.0032432001968466036</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="9" t="s">
         <v>68</v>
       </c>
       <c r="B69">
-        <v>0.98089007224157887</v>
+        <v>0.99162503174119043</v>
       </c>
       <c r="C69">
-        <v>0.019109927758421144</v>
+        <v>0.0083749682588095779</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="9" t="s">
         <v>69</v>
       </c>
       <c r="B70">
-        <v>0.9846523789314181</v>
+        <v>0.99360169588119363</v>
       </c>
       <c r="C70">
-        <v>0.015347621068581856</v>
+        <v>0.0063983041188063593</v>
       </c>
       <c r="D70">
         <v>1</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B71">
-        <v>0.98257740681813888</v>
+        <v>0.99252413858832644</v>
       </c>
       <c r="C71">
-        <v>0.017422593181861113</v>
+        <v>0.0074758614116735645</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="9" t="s">
         <v>71</v>
       </c>
       <c r="B72">
-        <v>0.98797585037215074</v>
+        <v>0.99525589573163531</v>
       </c>
       <c r="C72">
-        <v>0.012024149627849276</v>
+        <v>0.0047441042683647313</v>
       </c>
       <c r="D72">
         <v>1</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="9" t="s">
         <v>72</v>
       </c>
       <c r="B73">
-        <v>0.98090881293563581</v>
+        <v>0.99163512502797735</v>
       </c>
       <c r="C73">
-        <v>0.01909118706436428</v>
+        <v>0.00836487497202262</v>
       </c>
       <c r="D73">
         <v>1</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="9" t="s">
         <v>73</v>
       </c>
       <c r="B74">
-        <v>0.98845848613739529</v>
+        <v>0.99548801758461547</v>
       </c>
       <c r="C74">
-        <v>0.011541513862604758</v>
+        <v>0.0045119824153845326</v>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B75">
-        <v>0.98090815897473838</v>
+        <v>0.99163477286009494</v>
       </c>
       <c r="C75">
-        <v>0.019091841025261593</v>
+        <v>0.0083652271399051025</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="9" t="s">
         <v>75</v>
       </c>
       <c r="B76">
-        <v>0.98290651940977847</v>
+        <v>0.99269717520415501</v>
       </c>
       <c r="C76">
-        <v>0.017093480590221553</v>
+        <v>0.0073028247958449519</v>
       </c>
       <c r="D76">
         <v>1</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="9" t="s">
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0.98835446391112536</v>
+        <v>0.99543817451868422</v>
       </c>
       <c r="C77">
-        <v>0.011645536088874621</v>
+        <v>0.0045618254813157887</v>
       </c>
       <c r="D77">
         <v>1</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="9" t="s">
         <v>77</v>
       </c>
       <c r="B78">
-        <v>0.98905444934035081</v>
+        <v>0.99577156305662029</v>
       </c>
       <c r="C78">
-        <v>0.010945550659649162</v>
+        <v>0.0042284369433797098</v>
       </c>
       <c r="D78">
         <v>1</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="9" t="s">
         <v>78</v>
       </c>
       <c r="B79">
-        <v>0.98089426701370674</v>
+        <v>0.99162729114936066</v>
       </c>
       <c r="C79">
-        <v>0.019105732986293252</v>
+        <v>0.0083727088506393536</v>
       </c>
       <c r="D79">
         <v>1</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="9" t="s">
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0.98090741054419461</v>
+        <v>0.99163436981534681</v>
       </c>
       <c r="C80">
-        <v>0.019092589455805359</v>
+        <v>0.0083656301846532152</v>
       </c>
       <c r="D80">
         <v>1</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="9" t="s">
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0.9808851109818213</v>
+        <v>0.99162235933132936</v>
       </c>
       <c r="C81">
-        <v>0.019114889018178757</v>
+        <v>0.0083776406686706262</v>
       </c>
       <c r="D81">
         <v>1</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="9" t="s">
         <v>81</v>
       </c>
       <c r="B82">
-        <v>0.98322455844490486</v>
+        <v>0.99286364375256053</v>
       </c>
       <c r="C82">
-        <v>0.016775441555095156</v>
+        <v>0.0071363562474394925</v>
       </c>
       <c r="D82">
         <v>1</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="9" t="s">
         <v>82</v>
       </c>
       <c r="B83">
-        <v>0.98418853598282396</v>
+        <v>0.99336363058479304</v>
       </c>
       <c r="C83">
-        <v>0.015811464017176011</v>
+        <v>0.0066363694152069127</v>
       </c>
       <c r="D83">
         <v>1</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="9" t="s">
         <v>83</v>
       </c>
       <c r="B84">
-        <v>0.98942154138975302</v>
+        <v>0.9959444698501394</v>
       </c>
       <c r="C84">
-        <v>0.010578458610246986</v>
+        <v>0.0040555301498605553</v>
       </c>
       <c r="D84">
         <v>1</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="9" t="s">
         <v>84</v>
       </c>
       <c r="B85">
-        <v>0.98088963039030885</v>
+        <v>0.9916247937422753</v>
       </c>
       <c r="C85">
-        <v>0.019110369609691195</v>
+        <v>0.0083752062577247509</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="9" t="s">
         <v>85</v>
       </c>
       <c r="B86">
-        <v>0.99061549203509591</v>
+        <v>0.99649716823353607</v>
       </c>
       <c r="C86">
-        <v>0.0093845079649040996</v>
+        <v>0.0035028317664639128</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="9" t="s">
         <v>86</v>
       </c>
       <c r="B87">
-        <v>0.98442087818106971</v>
+        <v>0.99348308713567079</v>
       </c>
       <c r="C87">
-        <v>0.015579121818930239</v>
+        <v>0.0065169128643292312</v>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="9" t="s">
         <v>87</v>
       </c>
       <c r="B88">
-        <v>0.98327003031979243</v>
+        <v>0.9928873842466146</v>
       </c>
       <c r="C88">
-        <v>0.016729969680207547</v>
+        <v>0.0071126157533853802</v>
       </c>
       <c r="D88">
         <v>1</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="9" t="s">
         <v>88</v>
       </c>
       <c r="B89">
-        <v>0.98093802982100597</v>
+        <v>0.99165085583252222</v>
       </c>
       <c r="C89">
-        <v>0.01906197017899405</v>
+        <v>0.0083491441674778278</v>
       </c>
       <c r="D89">
         <v>1</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="9" t="s">
         <v>89</v>
       </c>
       <c r="B90">
-        <v>0.98292210967009819</v>
+        <v>0.99270535265469939</v>
       </c>
       <c r="C90">
-        <v>0.017077890329901764</v>
+        <v>0.0072946473453005811</v>
       </c>
       <c r="D90">
         <v>1</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="5" t="s">
+      <c r="A91" s="9" t="s">
         <v>90</v>
       </c>
       <c r="B91">
-        <v>0.98516880075445323</v>
+        <v>0.99386476734862617</v>
       </c>
       <c r="C91">
-        <v>0.014831199245546725</v>
+        <v>0.0061352326513738412</v>
       </c>
       <c r="D91">
         <v>1</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="9" t="s">
         <v>91</v>
       </c>
       <c r="B92">
-        <v>0.9918694179581955</v>
+        <v>0.99706054009674749</v>
       </c>
       <c r="C92">
-        <v>0.0081305820418045276</v>
+        <v>0.0029394599032525424</v>
       </c>
       <c r="D92">
         <v>1</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="9" t="s">
         <v>92</v>
       </c>
       <c r="B93">
-        <v>0.99020235946478075</v>
+        <v>0.99630764283132767</v>
       </c>
       <c r="C93">
-        <v>0.0097976405352192819</v>
+        <v>0.0036923571686722995</v>
       </c>
       <c r="D93">
         <v>1</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="9" t="s">
         <v>93</v>
       </c>
       <c r="B94">
-        <v>0.9843693347803999</v>
+        <v>0.99345662246156929</v>
       </c>
       <c r="C94">
-        <v>0.015630665219600059</v>
+        <v>0.0065433775384306546</v>
       </c>
       <c r="D94">
         <v>1</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="9" t="s">
         <v>94</v>
       </c>
       <c r="B95">
-        <v>0.98090165669008444</v>
+        <v>0.99163127112470939</v>
       </c>
       <c r="C95">
-        <v>0.019098343309915545</v>
+        <v>0.0083687288752905854</v>
       </c>
       <c r="D95">
         <v>1</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="9" t="s">
         <v>95</v>
       </c>
       <c r="B96">
-        <v>0.97838080008787687</v>
+        <v>0.99025290626781493</v>
       </c>
       <c r="C96">
-        <v>0.021619199912123143</v>
+        <v>0.0097470937321850696</v>
       </c>
       <c r="D96">
         <v>1</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="9" t="s">
         <v>96</v>
       </c>
       <c r="B97">
-        <v>0.99134514181600553</v>
+        <v>0.99682722966073734</v>
       </c>
       <c r="C97">
-        <v>0.0086548581839944964</v>
+        <v>0.0031727703392626667</v>
       </c>
       <c r="D97">
         <v>1</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="9" t="s">
         <v>97</v>
       </c>
       <c r="B98">
-        <v>0.98091584268671594</v>
+        <v>0.99163891047434183</v>
       </c>
       <c r="C98">
-        <v>0.019084157313284101</v>
+        <v>0.0083610895256582066</v>
       </c>
       <c r="D98">
         <v>1</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="9" t="s">
         <v>98</v>
       </c>
       <c r="B99">
-        <v>0.9809069118349022</v>
+        <v>0.99163410124837525</v>
       </c>
       <c r="C99">
-        <v>0.019093088165097753</v>
+        <v>0.008365898751624733</v>
       </c>
       <c r="D99">
         <v>1</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="9" t="s">
         <v>99</v>
       </c>
       <c r="B100">
-        <v>0.98375014209814848</v>
+        <v>0.99313711262426629</v>
       </c>
       <c r="C100">
-        <v>0.016249857901851471</v>
+        <v>0.0068628873757336758</v>
       </c>
       <c r="D100">
         <v>1</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="5" t="s">
+      <c r="A101" s="9" t="s">
         <v>100</v>
       </c>
       <c r="B101">
-        <v>0.99202902270669857</v>
+        <v>0.99713090125788273</v>
       </c>
       <c r="C101">
-        <v>0.0079709772933014723</v>
+        <v>0.0028690987421172692</v>
       </c>
       <c r="D101">
         <v>1</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="5" t="s">
+      <c r="A102" s="9" t="s">
         <v>101</v>
       </c>
       <c r="B102">
-        <v>0.9882334396246123</v>
+        <v>0.99538005546032116</v>
       </c>
       <c r="C102">
-        <v>0.01176656037538768</v>
+        <v>0.004619944539678825</v>
       </c>
       <c r="D102">
         <v>1</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="5" t="s">
+      <c r="A103" s="9" t="s">
         <v>102</v>
       </c>
       <c r="B103">
-        <v>0.99174325521023665</v>
+        <v>0.99700469939722758</v>
       </c>
       <c r="C103">
-        <v>0.0082567447897633414</v>
+        <v>0.0029953006027723882</v>
       </c>
       <c r="D103">
         <v>1</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="5" t="s">
+      <c r="A104" s="9" t="s">
         <v>103</v>
       </c>
       <c r="B104">
-        <v>0.9872995142470915</v>
+        <v>0.99492698836671112</v>
       </c>
       <c r="C104">
-        <v>0.012700485752908474</v>
+        <v>0.0050730116332889322</v>
       </c>
       <c r="D104">
         <v>1</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="5" t="s">
+      <c r="A105" s="9" t="s">
         <v>104</v>
       </c>
       <c r="B105">
-        <v>0.99315676207697157</v>
+        <v>0.99761869916071533</v>
       </c>
       <c r="C105">
-        <v>0.0068432379230283962</v>
+        <v>0.0023813008392846954</v>
       </c>
       <c r="D105">
         <v>1</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="5" t="s">
+      <c r="A106" s="9" t="s">
         <v>105</v>
       </c>
       <c r="B106">
-        <v>0.99239852790690986</v>
+        <v>0.99729256622636653</v>
       </c>
       <c r="C106">
-        <v>0.0076014720930900953</v>
+        <v>0.0027074337736334676</v>
       </c>
       <c r="D106">
         <v>1</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="5" t="s">
+      <c r="A107" s="9" t="s">
         <v>106</v>
       </c>
       <c r="B107">
-        <v>0.99002346152985177</v>
+        <v>0.99622500003803161</v>
       </c>
       <c r="C107">
-        <v>0.0099765384701482086</v>
+        <v>0.0037749999619684075</v>
       </c>
       <c r="D107">
         <v>1</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="5" t="s">
+      <c r="A108" s="9" t="s">
         <v>107</v>
       </c>
       <c r="B108">
-        <v>0.99493899303947486</v>
+        <v>0.99835224449632631</v>
       </c>
       <c r="C108">
-        <v>0.0050610069605250855</v>
+        <v>0.0016477555036737332</v>
       </c>
       <c r="D108">
         <v>1</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="5" t="s">
+      <c r="A109" s="9" t="s">
         <v>108</v>
       </c>
       <c r="B109">
-        <v>0.99329262672815899</v>
+        <v>0.99767630619907577</v>
       </c>
       <c r="C109">
-        <v>0.0067073732718409985</v>
+        <v>0.00232369380092425</v>
       </c>
       <c r="D109">
         <v>1</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="5" t="s">
+      <c r="A110" s="9" t="s">
         <v>109</v>
       </c>
       <c r="B110">
-        <v>0.98423288225512251</v>
+        <v>0.99338646283609344</v>
       </c>
       <c r="C110">
-        <v>0.015767117744877442</v>
+        <v>0.0066135371639065394</v>
       </c>
       <c r="D110">
         <v>1</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="5" t="s">
+      <c r="A111" s="9" t="s">
         <v>110</v>
       </c>
       <c r="B111">
-        <v>0.99106343804751162</v>
+        <v>0.99670052168215295</v>
       </c>
       <c r="C111">
-        <v>0.0089365619524884241</v>
+        <v>0.0032994783178470974</v>
       </c>
       <c r="D111">
         <v>1</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="5" t="s">
+      <c r="A112" s="9" t="s">
         <v>111</v>
       </c>
       <c r="B112">
-        <v>0.98844418058030326</v>
+        <v>0.99548116908508799</v>
       </c>
       <c r="C112">
-        <v>0.011555819419696736</v>
+        <v>0.0045188309149120634</v>
       </c>
       <c r="D112">
         <v>1</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="5" t="s">
+      <c r="A113" s="9" t="s">
         <v>112</v>
       </c>
       <c r="B113">
-        <v>0.98902397883400983</v>
+        <v>0.99575715031207224</v>
       </c>
       <c r="C113">
-        <v>0.010976021165990151</v>
+        <v>0.0042428496879277459</v>
       </c>
       <c r="D113">
         <v>1</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="5" t="s">
+      <c r="A114" s="9" t="s">
         <v>113</v>
       </c>
       <c r="B114">
-        <v>0.98378891111684164</v>
+        <v>0.99315720313086742</v>
       </c>
       <c r="C114">
-        <v>0.016211088883158333</v>
+        <v>0.0068427968691325784</v>
       </c>
       <c r="D114">
         <v>1</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="5" t="s">
+      <c r="A115" s="9" t="s">
         <v>114</v>
       </c>
       <c r="B115">
-        <v>0.99158845530250195</v>
+        <v>0.99693591894475064</v>
       </c>
       <c r="C115">
-        <v>0.0084115446974980402</v>
+        <v>0.0030640810552493365</v>
       </c>
       <c r="D115">
         <v>1</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="5" t="s">
+      <c r="A116" s="9" t="s">
         <v>115</v>
       </c>
       <c r="B116">
-        <v>0.98285315614513935</v>
+        <v>0.99266917161234747</v>
       </c>
       <c r="C116">
-        <v>0.017146843854860601</v>
+        <v>0.0073308283876524832</v>
       </c>
       <c r="D116">
         <v>1</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="5" t="s">
+      <c r="A117" s="9" t="s">
         <v>116</v>
       </c>
       <c r="B117">
-        <v>0.98156049150366398</v>
+        <v>0.99198462470036552</v>
       </c>
       <c r="C117">
-        <v>0.018439508496336</v>
+        <v>0.008015375299634522</v>
       </c>
       <c r="D117">
         <v>1</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="5" t="s">
+      <c r="A118" s="9" t="s">
         <v>117</v>
       </c>
       <c r="B118">
-        <v>0.98295015383232842</v>
+        <v>0.99272005802448582</v>
       </c>
       <c r="C118">
-        <v>0.017049846167671624</v>
+        <v>0.0072799419755141962</v>
       </c>
       <c r="D118">
         <v>1</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="5" t="s">
+      <c r="A119" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B119">
-        <v>0.98159024280083806</v>
+        <v>0.9920005113182031</v>
       </c>
       <c r="C119">
-        <v>0.018409757199161887</v>
+        <v>0.0079994886817968888</v>
       </c>
       <c r="D119">
         <v>1</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="5" t="s">
+      <c r="A120" s="9" t="s">
         <v>119</v>
       </c>
       <c r="B120">
-        <v>0.9825257263472158</v>
+        <v>0.99249689603232005</v>
       </c>
       <c r="C120">
-        <v>0.017474273652784235</v>
+        <v>0.0075031039676799281</v>
       </c>
       <c r="D120">
         <v>1</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="5" t="s">
+      <c r="A121" s="9" t="s">
         <v>120</v>
       </c>
       <c r="B121">
-        <v>0.99145555456526158</v>
+        <v>0.99687663878744748</v>
       </c>
       <c r="C121">
-        <v>0.0085444454347383802</v>
+        <v>0.00312336121255256</v>
       </c>
       <c r="D121">
         <v>1</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="5" t="s">
+      <c r="A122" s="9" t="s">
         <v>121</v>
       </c>
       <c r="B122">
-        <v>0.99112146400050016</v>
+        <v>0.99672669658864188</v>
       </c>
       <c r="C122">
-        <v>0.0088785359994998092</v>
+        <v>0.0032733034113581298</v>
       </c>
       <c r="D122">
         <v>1</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="5" t="s">
+      <c r="A123" s="9" t="s">
         <v>122</v>
       </c>
       <c r="B123">
-        <v>0.99385753521873532</v>
+        <v>0.99791297371605303</v>
       </c>
       <c r="C123">
-        <v>0.0061424647812646773</v>
+        <v>0.0020870262839470183</v>
       </c>
       <c r="D123">
         <v>1</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="5" t="s">
+      <c r="A124" s="9" t="s">
         <v>123</v>
       </c>
       <c r="B124">
-        <v>0.98836086118461008</v>
+        <v>0.99544124279560053</v>
       </c>
       <c r="C124">
-        <v>0.011639138815389919</v>
+        <v>0.0045587572043994194</v>
       </c>
       <c r="D124">
         <v>1</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="5" t="s">
+      <c r="A125" s="9" t="s">
         <v>124</v>
       </c>
       <c r="B125">
-        <v>0.99239519283592503</v>
+        <v>0.9972911148847986</v>
       </c>
       <c r="C125">
-        <v>0.0076048071640749957</v>
+        <v>0.0027088851152014147</v>
       </c>
       <c r="D125">
         <v>1</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="5" t="s">
+      <c r="A126" s="9" t="s">
         <v>125</v>
       </c>
       <c r="B126">
-        <v>0.99255725924439175</v>
+        <v>0.9973614749133779</v>
       </c>
       <c r="C126">
-        <v>0.0074427407556082086</v>
+        <v>0.0026385250866220534</v>
       </c>
       <c r="D126">
         <v>1</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="5" t="s">
+      <c r="A127" s="9" t="s">
         <v>126</v>
       </c>
       <c r="B127">
-        <v>0.98093889302879922</v>
+        <v>0.99165132050913185</v>
       </c>
       <c r="C127">
-        <v>0.019061106971200798</v>
+        <v>0.0083486794908681876</v>
       </c>
       <c r="D127">
         <v>1</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="5" t="s">
+      <c r="A128" s="9" t="s">
         <v>127</v>
       </c>
       <c r="B128">
-        <v>0.98483104615331396</v>
+        <v>0.99369294941597242</v>
       </c>
       <c r="C128">
-        <v>0.015168953846686076</v>
+        <v>0.0063070505840275952</v>
       </c>
       <c r="D128">
         <v>1</v>

--- a/outputs/test-Primates.xlsx
+++ b/outputs/test-Primates.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="131">
   <si>
     <t>Row</t>
   </si>
@@ -429,7 +429,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -447,11 +447,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -463,6 +465,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4096,1792 +4100,1792 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="11" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.99164415618616286</v>
+        <v>0.99466293653508897</v>
       </c>
       <c r="C2">
-        <v>0.0083558438138371643</v>
+        <v>0.0053370634649110562</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.9916414338888434</v>
+        <v>0.99466102330148365</v>
       </c>
       <c r="C3">
-        <v>0.008358566111156639</v>
+        <v>0.005338976698516398</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.99639285331340899</v>
+        <v>0.99788053184435699</v>
       </c>
       <c r="C4">
-        <v>0.0036071466865909988</v>
+        <v>0.0021194681556429866</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.99163697546850305</v>
+        <v>0.9946578897802808</v>
       </c>
       <c r="C5">
-        <v>0.0083630245314969646</v>
+        <v>0.00534211021971922</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.99460364832478443</v>
+        <v>0.99670034549207243</v>
       </c>
       <c r="C6">
-        <v>0.0053963516752155187</v>
+        <v>0.0032996545079275216</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.99164960570846439</v>
+        <v>0.99466676627287753</v>
       </c>
       <c r="C7">
-        <v>0.0083503942915355792</v>
+        <v>0.0053332337271224505</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.99271589438955421</v>
+        <v>0.99541098313381593</v>
       </c>
       <c r="C8">
-        <v>0.0072841056104458249</v>
+        <v>0.004589016866184124</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.99346419832075272</v>
+        <v>0.99592672830614415</v>
       </c>
       <c r="C9">
-        <v>0.006535801679247227</v>
+        <v>0.0040732716938558285</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.99493698499957539</v>
+        <v>0.9969236904865153</v>
       </c>
       <c r="C10">
-        <v>0.0050630150004246531</v>
+        <v>0.0030763095134846473</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.98105026379993321</v>
+        <v>0.98684510389389268</v>
       </c>
       <c r="C11">
-        <v>0.018949736200066777</v>
+        <v>0.01315489610610731</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.99629450693478627</v>
+        <v>0.99781696234412431</v>
       </c>
       <c r="C12">
-        <v>0.0037054930652137517</v>
+        <v>0.0021830376558756685</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.99535695769256949</v>
+        <v>0.99720296757478666</v>
       </c>
       <c r="C13">
-        <v>0.004643042307430548</v>
+        <v>0.0027970324252133464</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.99163246137654604</v>
+        <v>0.9946547169562584</v>
       </c>
       <c r="C14">
-        <v>0.0083675386234539541</v>
+        <v>0.0053452830437415721</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.99714593072930491</v>
+        <v>0.99836123949284106</v>
       </c>
       <c r="C15">
-        <v>0.0028540692706950513</v>
+        <v>0.0016387605071589476</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.99615780894099526</v>
+        <v>0.99772832329428551</v>
       </c>
       <c r="C16">
-        <v>0.0038421910590047338</v>
+        <v>0.0022716767057144507</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.99257535959068799</v>
+        <v>0.99531350135309382</v>
       </c>
       <c r="C17">
-        <v>0.0074246404093120649</v>
+        <v>0.0046864986469061717</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.99163634026754621</v>
+        <v>0.99465744332663697</v>
       </c>
       <c r="C18">
-        <v>0.0083636597324537407</v>
+        <v>0.0053425566733630711</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.99223626278154897</v>
+        <v>0.9950775151453598</v>
       </c>
       <c r="C19">
-        <v>0.0077637372184510139</v>
+        <v>0.0049224848546402496</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.99596762808304196</v>
+        <v>0.99760448056863427</v>
       </c>
       <c r="C20">
-        <v>0.0040323719169580328</v>
+        <v>0.00239551943136575</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.99164092660906511</v>
+        <v>0.99466066677760423</v>
       </c>
       <c r="C21">
-        <v>0.0083590733909349353</v>
+        <v>0.0053393332223958135</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.9916371805432056</v>
+        <v>0.99465803391714691</v>
       </c>
       <c r="C22">
-        <v>0.0083628194567944257</v>
+        <v>0.0053419660828531402</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.9972787774917109</v>
+        <v>0.99844481989728506</v>
       </c>
       <c r="C23">
-        <v>0.0027212225082890477</v>
+        <v>0.0015551801027149038</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.99721565458047068</v>
+        <v>0.99840515552870168</v>
       </c>
       <c r="C24">
-        <v>0.0027843454195293012</v>
+        <v>0.001594844471298338</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.99659922706511617</v>
+        <v>0.99801336130516882</v>
       </c>
       <c r="C25">
-        <v>0.0034007729348838347</v>
+        <v>0.0019866386948312318</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.99713816297190583</v>
+        <v>0.99835634026841558</v>
       </c>
       <c r="C26">
-        <v>0.0028618370280942022</v>
+        <v>0.0016436597315843825</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.99748210423871297</v>
+        <v>0.9985719537779878</v>
       </c>
       <c r="C27">
-        <v>0.0025178957612870733</v>
+        <v>0.0014280462220121739</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.99692164981247011</v>
+        <v>0.99821926183513332</v>
       </c>
       <c r="C28">
-        <v>0.0030783501875299053</v>
+        <v>0.0017807381648667071</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.99162105112568866</v>
+        <v>0.99464669623799362</v>
       </c>
       <c r="C29">
-        <v>0.0083789488743113167</v>
+        <v>0.0053533037620063324</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="11" t="s">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.99356383801726633</v>
+        <v>0.99599496321407455</v>
       </c>
       <c r="C30">
-        <v>0.0064361619827337175</v>
+        <v>0.004005036785925494</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.99730525482867338</v>
+        <v>0.99846143033524337</v>
       </c>
       <c r="C31">
-        <v>0.0026947451713266448</v>
+        <v>0.0015385696647566261</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.99758171394845796</v>
+        <v>0.99863387094223899</v>
       </c>
       <c r="C32">
-        <v>0.0024182860515420948</v>
+        <v>0.0013661290577610364</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.99255540736843184</v>
+        <v>0.995299646132914</v>
       </c>
       <c r="C33">
-        <v>0.00744459263156817</v>
+        <v>0.0047003538670860037</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.99267607794347712</v>
+        <v>0.99538338386855663</v>
       </c>
       <c r="C34">
-        <v>0.0073239220565228819</v>
+        <v>0.004616616131443328</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.9918004162896652</v>
+        <v>0.99477264831937395</v>
       </c>
       <c r="C35">
-        <v>0.0081995837103348533</v>
+        <v>0.0052273516806260502</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.99611902538832897</v>
+        <v>0.99770311688648972</v>
       </c>
       <c r="C36">
-        <v>0.0038809746116710668</v>
+        <v>0.0022968831135103335</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0.99629821253090922</v>
+        <v>0.99781936066770871</v>
       </c>
       <c r="C37">
-        <v>0.0037017874690907383</v>
+        <v>0.0021806393322912985</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0.99570968453737152</v>
+        <v>0.99743557878337286</v>
       </c>
       <c r="C38">
-        <v>0.0042903154626284514</v>
+        <v>0.0025644212166271271</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0.99676147655910774</v>
+        <v>0.99811722985226714</v>
       </c>
       <c r="C39">
-        <v>0.0032385234408922859</v>
+        <v>0.0018827701477328372</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0.99629162085007594</v>
+        <v>0.99781509425589743</v>
       </c>
       <c r="C40">
-        <v>0.003708379149924028</v>
+        <v>0.0021849057441026116</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0.99529160986395337</v>
+        <v>0.99715967336540645</v>
       </c>
       <c r="C41">
-        <v>0.0047083901360466104</v>
+        <v>0.0028403266345935494</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0.99601751269479444</v>
+        <v>0.99763702238186014</v>
       </c>
       <c r="C42">
-        <v>0.0039824873052056097</v>
+        <v>0.0023629776181399052</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0.99472188829609287</v>
+        <v>0.99677973368950501</v>
       </c>
       <c r="C43">
-        <v>0.005278111703907116</v>
+        <v>0.0032202663104950011</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0.99310011707397561</v>
+        <v>0.99567650878348191</v>
       </c>
       <c r="C44">
-        <v>0.0068998829260243965</v>
+        <v>0.004323491216518126</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="11" t="s">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.99508299149040991</v>
+        <v>0.99702105820750653</v>
       </c>
       <c r="C45">
-        <v>0.004917008509590118</v>
+        <v>0.0029789417924935262</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="11" t="s">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>0.99371559872350179</v>
+        <v>0.99609868468251628</v>
       </c>
       <c r="C46">
-        <v>0.006284401276498203</v>
+        <v>0.0039013153174837739</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>0.99915410815958883</v>
+        <v>0.99956875913771648</v>
       </c>
       <c r="C47">
-        <v>0.00084589184041120968</v>
+        <v>0.00043124086228350247</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="11" t="s">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>0.99942882798504529</v>
+        <v>0.99971973470880937</v>
       </c>
       <c r="C48">
-        <v>0.00057117201495467508</v>
+        <v>0.00028026529119061939</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="11" t="s">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>0.99468643656028954</v>
+        <v>0.99675594950495439</v>
       </c>
       <c r="C49">
-        <v>0.0053135634397104758</v>
+        <v>0.0032440504950456031</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="11" t="s">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0.99801510872123012</v>
+        <v>0.99890020225442411</v>
       </c>
       <c r="C50">
-        <v>0.00198489127876983</v>
+        <v>0.0010997977455758821</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="11" t="s">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>0.99679201821523944</v>
+        <v>0.99813672477586257</v>
       </c>
       <c r="C51">
-        <v>0.0032079817847605377</v>
+        <v>0.0018632752241374726</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="11" t="s">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0.99670900615233948</v>
+        <v>0.9980836949701678</v>
       </c>
       <c r="C52">
-        <v>0.0032909938476605024</v>
+        <v>0.0019163050298321518</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="11" t="s">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.99340818161377764</v>
+        <v>0.99588832052768261</v>
       </c>
       <c r="C53">
-        <v>0.0065918183862223598</v>
+        <v>0.0041116794723173537</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="11" t="s">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>0.99560098721267332</v>
+        <v>0.99736409428462236</v>
       </c>
       <c r="C54">
-        <v>0.0043990127873267228</v>
+        <v>0.0026359057153776061</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="11" t="s">
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0.99797043798731722</v>
+        <v>0.99887299678572172</v>
       </c>
       <c r="C55">
-        <v>0.002029562012682791</v>
+        <v>0.0011270032142783261</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="11" t="s">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0.99723502945172982</v>
+        <v>0.99841733965582136</v>
       </c>
       <c r="C56">
-        <v>0.0027649705482701769</v>
+        <v>0.001582660344178634</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="11" t="s">
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0.99163779719281941</v>
+        <v>0.99465846732747332</v>
       </c>
       <c r="C57">
-        <v>0.008362202807180549</v>
+        <v>0.0053415326725267135</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="11" t="s">
         <v>57</v>
       </c>
       <c r="B58">
-        <v>0.99379690960349376</v>
+        <v>0.99615415267560903</v>
       </c>
       <c r="C58">
-        <v>0.0062030903965062884</v>
+        <v>0.0038458473243909671</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="11" t="s">
         <v>58</v>
       </c>
       <c r="B59">
-        <v>0.99459835803194352</v>
+        <v>0.99669678936685047</v>
       </c>
       <c r="C59">
-        <v>0.0054016419680565355</v>
+        <v>0.003303210633149587</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="11" t="s">
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0.99388152854274603</v>
+        <v>0.99621179895848866</v>
       </c>
       <c r="C60">
-        <v>0.0061184714572539572</v>
+        <v>0.0037882010415113618</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="11" t="s">
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0.99433762611033316</v>
+        <v>0.99652109545791279</v>
       </c>
       <c r="C61">
-        <v>0.0056623738896668706</v>
+        <v>0.0034789045420872615</v>
       </c>
       <c r="D61">
         <v>1</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="11" t="s">
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0.99349962955404347</v>
+        <v>0.99595100441015405</v>
       </c>
       <c r="C62">
-        <v>0.006500370445956553</v>
+        <v>0.0040489955898459235</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="11" t="s">
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0.99490057778977803</v>
+        <v>0.99689936706224336</v>
       </c>
       <c r="C63">
-        <v>0.0050994222102219199</v>
+        <v>0.0031006329377566027</v>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="11" t="s">
         <v>63</v>
       </c>
       <c r="B64">
-        <v>0.99640741342717543</v>
+        <v>0.99788992867022397</v>
       </c>
       <c r="C64">
-        <v>0.0035925865728245318</v>
+        <v>0.0021100713297760726</v>
       </c>
       <c r="D64">
         <v>1</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="11" t="s">
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0.99371522820482205</v>
+        <v>0.99609843175746182</v>
       </c>
       <c r="C65">
-        <v>0.0062847717951779562</v>
+        <v>0.0039015682425381395</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="11" t="s">
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0.99163655355251368</v>
+        <v>0.99465759323525538</v>
       </c>
       <c r="C66">
-        <v>0.0083634464474862721</v>
+        <v>0.005342406764744582</v>
       </c>
       <c r="D66">
         <v>1</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="11" t="s">
         <v>66</v>
       </c>
       <c r="B67">
-        <v>0.99909547801965126</v>
+        <v>0.99953584827496489</v>
       </c>
       <c r="C67">
-        <v>0.00090452198034875815</v>
+        <v>0.00046415172503514281</v>
       </c>
       <c r="D67">
         <v>1</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="11" t="s">
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0.99675679980315335</v>
+        <v>0.99811424302888185</v>
       </c>
       <c r="C68">
-        <v>0.0032432001968466036</v>
+        <v>0.0018857569711181648</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B69">
-        <v>0.99162503174119043</v>
+        <v>0.99464949449829776</v>
       </c>
       <c r="C69">
-        <v>0.0083749682588095779</v>
+        <v>0.0053505055017022832</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="11" t="s">
         <v>69</v>
       </c>
       <c r="B70">
-        <v>0.99360169588119363</v>
+        <v>0.99602086083735997</v>
       </c>
       <c r="C70">
-        <v>0.0063983041188063593</v>
+        <v>0.0039791391626400694</v>
       </c>
       <c r="D70">
         <v>1</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B71">
-        <v>0.99252413858832644</v>
+        <v>0.99527792483007316</v>
       </c>
       <c r="C71">
-        <v>0.0074758614116735645</v>
+        <v>0.0047220751699268817</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="11" t="s">
         <v>71</v>
       </c>
       <c r="B72">
-        <v>0.99525589573163531</v>
+        <v>0.99713598643977208</v>
       </c>
       <c r="C72">
-        <v>0.0047441042683647313</v>
+        <v>0.0028640135602278861</v>
       </c>
       <c r="D72">
         <v>1</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="11" t="s">
         <v>72</v>
       </c>
       <c r="B73">
-        <v>0.99163512502797735</v>
+        <v>0.9946565891807172</v>
       </c>
       <c r="C73">
-        <v>0.00836487497202262</v>
+        <v>0.0053434108192827864</v>
       </c>
       <c r="D73">
         <v>1</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="9" t="s">
+      <c r="A74" s="11" t="s">
         <v>73</v>
       </c>
       <c r="B74">
-        <v>0.99548801758461547</v>
+        <v>0.99728961194307697</v>
       </c>
       <c r="C74">
-        <v>0.0045119824153845326</v>
+        <v>0.0027103880569230581</v>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="9" t="s">
+      <c r="A75" s="11" t="s">
         <v>74</v>
       </c>
       <c r="B75">
-        <v>0.99163477286009494</v>
+        <v>0.99465634165285055</v>
       </c>
       <c r="C75">
-        <v>0.0083652271399051025</v>
+        <v>0.0053436583471494917</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="9" t="s">
+      <c r="A76" s="11" t="s">
         <v>75</v>
       </c>
       <c r="B76">
-        <v>0.99269717520415501</v>
+        <v>0.99539800961310287</v>
       </c>
       <c r="C76">
-        <v>0.0073028247958449519</v>
+        <v>0.004601990386897143</v>
       </c>
       <c r="D76">
         <v>1</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="11" t="s">
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0.99543817451868422</v>
+        <v>0.99725668985609517</v>
       </c>
       <c r="C77">
-        <v>0.0045618254813157887</v>
+        <v>0.0027433101439048244</v>
       </c>
       <c r="D77">
         <v>1</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="11" t="s">
         <v>77</v>
       </c>
       <c r="B78">
-        <v>0.99577156305662029</v>
+        <v>0.99747619219604666</v>
       </c>
       <c r="C78">
-        <v>0.0042284369433797098</v>
+        <v>0.0025238078039532823</v>
       </c>
       <c r="D78">
         <v>1</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="11" t="s">
         <v>78</v>
       </c>
       <c r="B79">
-        <v>0.99162729114936066</v>
+        <v>0.9946510827376015</v>
       </c>
       <c r="C79">
-        <v>0.0083727088506393536</v>
+        <v>0.0053489172623984978</v>
       </c>
       <c r="D79">
         <v>1</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="11" t="s">
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0.99163436981534681</v>
+        <v>0.99465605836390014</v>
       </c>
       <c r="C80">
-        <v>0.0083656301846532152</v>
+        <v>0.0053439416360998668</v>
       </c>
       <c r="D80">
         <v>1</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="9" t="s">
+      <c r="A81" s="11" t="s">
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0.99162235933132936</v>
+        <v>0.99464761588470674</v>
       </c>
       <c r="C81">
-        <v>0.0083776406686706262</v>
+        <v>0.0053523841152932827</v>
       </c>
       <c r="D81">
         <v>1</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="9" t="s">
+      <c r="A82" s="11" t="s">
         <v>81</v>
       </c>
       <c r="B82">
-        <v>0.99286364375256053</v>
+        <v>0.99551326213278424</v>
       </c>
       <c r="C82">
-        <v>0.0071363562474394925</v>
+        <v>0.0044867378672157187</v>
       </c>
       <c r="D82">
         <v>1</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="9" t="s">
+      <c r="A83" s="11" t="s">
         <v>82</v>
       </c>
       <c r="B83">
-        <v>0.99336363058479304</v>
+        <v>0.99585775043255464</v>
       </c>
       <c r="C83">
-        <v>0.0066363694152069127</v>
+        <v>0.004142249567445363</v>
       </c>
       <c r="D83">
         <v>1</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="9" t="s">
+      <c r="A84" s="11" t="s">
         <v>83</v>
       </c>
       <c r="B84">
-        <v>0.9959444698501394</v>
+        <v>0.9975893597450185</v>
       </c>
       <c r="C84">
-        <v>0.0040555301498605553</v>
+        <v>0.0024106402549815423</v>
       </c>
       <c r="D84">
         <v>1</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="9" t="s">
+      <c r="A85" s="11" t="s">
         <v>84</v>
       </c>
       <c r="B85">
-        <v>0.9916247937422753</v>
+        <v>0.99464932719562404</v>
       </c>
       <c r="C85">
-        <v>0.0083752062577247509</v>
+        <v>0.005350672804375926</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="9" t="s">
+      <c r="A86" s="11" t="s">
         <v>85</v>
       </c>
       <c r="B86">
-        <v>0.99649716823353607</v>
+        <v>0.99794777024903214</v>
       </c>
       <c r="C86">
-        <v>0.0035028317664639128</v>
+        <v>0.0020522297509678765</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="9" t="s">
+      <c r="A87" s="11" t="s">
         <v>86</v>
       </c>
       <c r="B87">
-        <v>0.99348308713567079</v>
+        <v>0.99593967185919996</v>
       </c>
       <c r="C87">
-        <v>0.0065169128643292312</v>
+        <v>0.0040603281408000689</v>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="9" t="s">
+      <c r="A88" s="11" t="s">
         <v>87</v>
       </c>
       <c r="B88">
-        <v>0.9928873842466146</v>
+        <v>0.9955296763644973</v>
       </c>
       <c r="C88">
-        <v>0.0071126157533853802</v>
+        <v>0.0044703236355026731</v>
       </c>
       <c r="D88">
         <v>1</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="9" t="s">
+      <c r="A89" s="11" t="s">
         <v>88</v>
       </c>
       <c r="B89">
-        <v>0.99165085583252222</v>
+        <v>0.99466764478105307</v>
       </c>
       <c r="C89">
-        <v>0.0083491441674778278</v>
+        <v>0.0053323552189469157</v>
       </c>
       <c r="D89">
         <v>1</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="9" t="s">
+      <c r="A90" s="11" t="s">
         <v>89</v>
       </c>
       <c r="B90">
-        <v>0.99270535265469939</v>
+        <v>0.99540367749652081</v>
       </c>
       <c r="C90">
-        <v>0.0072946473453005811</v>
+        <v>0.0045963225034791446</v>
       </c>
       <c r="D90">
         <v>1</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="11" t="s">
         <v>90</v>
       </c>
       <c r="B91">
-        <v>0.99386476734862617</v>
+        <v>0.9962003868610263</v>
       </c>
       <c r="C91">
-        <v>0.0061352326513738412</v>
+        <v>0.0037996131389737347</v>
       </c>
       <c r="D91">
         <v>1</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="9" t="s">
+      <c r="A92" s="11" t="s">
         <v>91</v>
       </c>
       <c r="B92">
-        <v>0.99706054009674749</v>
+        <v>0.99830731044920284</v>
       </c>
       <c r="C92">
-        <v>0.0029394599032525424</v>
+        <v>0.0016926895507971135</v>
       </c>
       <c r="D92">
         <v>1</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="9" t="s">
+      <c r="A93" s="11" t="s">
         <v>92</v>
       </c>
       <c r="B93">
-        <v>0.99630764283132767</v>
+        <v>0.99782546303248476</v>
       </c>
       <c r="C93">
-        <v>0.0036923571686722995</v>
+        <v>0.0021745369675152605</v>
       </c>
       <c r="D93">
         <v>1</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="9" t="s">
+      <c r="A94" s="11" t="s">
         <v>93</v>
       </c>
       <c r="B94">
-        <v>0.99345662246156929</v>
+        <v>0.99592153588130605</v>
       </c>
       <c r="C94">
-        <v>0.0065433775384306546</v>
+        <v>0.0040784641186939665</v>
       </c>
       <c r="D94">
         <v>1</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="9" t="s">
+      <c r="A95" s="11" t="s">
         <v>94</v>
       </c>
       <c r="B95">
-        <v>0.99163127112470939</v>
+        <v>0.99465388033351176</v>
       </c>
       <c r="C95">
-        <v>0.0083687288752905854</v>
+        <v>0.0053461196664881996</v>
       </c>
       <c r="D95">
         <v>1</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="9" t="s">
+      <c r="A96" s="11" t="s">
         <v>95</v>
       </c>
       <c r="B96">
-        <v>0.99025290626781493</v>
+        <v>0.99367717789613319</v>
       </c>
       <c r="C96">
-        <v>0.0097470937321850696</v>
+        <v>0.0063228221038668228</v>
       </c>
       <c r="D96">
         <v>1</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="9" t="s">
+      <c r="A97" s="11" t="s">
         <v>96</v>
       </c>
       <c r="B97">
-        <v>0.99682722966073734</v>
+        <v>0.99815917751014305</v>
       </c>
       <c r="C97">
-        <v>0.0031727703392626667</v>
+        <v>0.0018408224898569751</v>
       </c>
       <c r="D97">
         <v>1</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="9" t="s">
+      <c r="A98" s="11" t="s">
         <v>97</v>
       </c>
       <c r="B98">
-        <v>0.99163891047434183</v>
+        <v>0.99465924978571996</v>
       </c>
       <c r="C98">
-        <v>0.0083610895256582066</v>
+        <v>0.0053407502142800148</v>
       </c>
       <c r="D98">
         <v>1</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="9" t="s">
+      <c r="A99" s="11" t="s">
         <v>98</v>
       </c>
       <c r="B99">
-        <v>0.99163410124837525</v>
+        <v>0.99465586959486174</v>
       </c>
       <c r="C99">
-        <v>0.008365898751624733</v>
+        <v>0.0053441304051382379</v>
       </c>
       <c r="D99">
         <v>1</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="9" t="s">
+      <c r="A100" s="11" t="s">
         <v>99</v>
       </c>
       <c r="B100">
-        <v>0.99313711262426629</v>
+        <v>0.99570199713100505</v>
       </c>
       <c r="C100">
-        <v>0.0068628873757336758</v>
+        <v>0.0042980028689949988</v>
       </c>
       <c r="D100">
         <v>1</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="9" t="s">
+      <c r="A101" s="11" t="s">
         <v>100</v>
       </c>
       <c r="B101">
-        <v>0.99713090125788273</v>
+        <v>0.99835175901678075</v>
       </c>
       <c r="C101">
-        <v>0.0028690987421172692</v>
+        <v>0.0016482409832192066</v>
       </c>
       <c r="D101">
         <v>1</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="9" t="s">
+      <c r="A102" s="11" t="s">
         <v>101</v>
       </c>
       <c r="B102">
-        <v>0.99538005546032116</v>
+        <v>0.99721825568450972</v>
       </c>
       <c r="C102">
-        <v>0.004619944539678825</v>
+        <v>0.0027817443154903045</v>
       </c>
       <c r="D102">
         <v>1</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="9" t="s">
+      <c r="A103" s="11" t="s">
         <v>102</v>
       </c>
       <c r="B103">
-        <v>0.99700469939722758</v>
+        <v>0.99827195925713952</v>
       </c>
       <c r="C103">
-        <v>0.0029953006027723882</v>
+        <v>0.0017280407428604478</v>
       </c>
       <c r="D103">
         <v>1</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="9" t="s">
+      <c r="A104" s="11" t="s">
         <v>103</v>
       </c>
       <c r="B104">
-        <v>0.99492698836671112</v>
+        <v>0.99691701355147999</v>
       </c>
       <c r="C104">
-        <v>0.0050730116332889322</v>
+        <v>0.0030829864485200503</v>
       </c>
       <c r="D104">
         <v>1</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="9" t="s">
+      <c r="A105" s="11" t="s">
         <v>104</v>
       </c>
       <c r="B105">
-        <v>0.99761869916071533</v>
+        <v>0.99865679716332767</v>
       </c>
       <c r="C105">
-        <v>0.0023813008392846954</v>
+        <v>0.0013432028366723553</v>
       </c>
       <c r="D105">
         <v>1</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="9" t="s">
+      <c r="A106" s="11" t="s">
         <v>105</v>
       </c>
       <c r="B106">
-        <v>0.99729256622636653</v>
+        <v>0.99845347220946623</v>
       </c>
       <c r="C106">
-        <v>0.0027074337736334676</v>
+        <v>0.0015465277905337875</v>
       </c>
       <c r="D106">
         <v>1</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="9" t="s">
+      <c r="A107" s="11" t="s">
         <v>106</v>
       </c>
       <c r="B107">
-        <v>0.99622500003803161</v>
+        <v>0.99777193212514037</v>
       </c>
       <c r="C107">
-        <v>0.0037749999619684075</v>
+        <v>0.0022280678748595774</v>
       </c>
       <c r="D107">
         <v>1</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="9" t="s">
+      <c r="A108" s="11" t="s">
         <v>107</v>
       </c>
       <c r="B108">
-        <v>0.99835224449632631</v>
+        <v>0.99910348563825713</v>
       </c>
       <c r="C108">
-        <v>0.0016477555036737332</v>
+        <v>0.00089651436174283366</v>
       </c>
       <c r="D108">
         <v>1</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="9" t="s">
+      <c r="A109" s="11" t="s">
         <v>108</v>
       </c>
       <c r="B109">
-        <v>0.99767630619907577</v>
+        <v>0.99869243598965995</v>
       </c>
       <c r="C109">
-        <v>0.00232369380092425</v>
+        <v>0.0013075640103400168</v>
       </c>
       <c r="D109">
         <v>1</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="9" t="s">
+      <c r="A110" s="11" t="s">
         <v>109</v>
       </c>
       <c r="B110">
-        <v>0.99338646283609344</v>
+        <v>0.99587342012166757</v>
       </c>
       <c r="C110">
-        <v>0.0066135371639065394</v>
+        <v>0.0041265798783324033</v>
       </c>
       <c r="D110">
         <v>1</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="9" t="s">
+      <c r="A111" s="11" t="s">
         <v>110</v>
       </c>
       <c r="B111">
-        <v>0.99670052168215295</v>
+        <v>0.99807826734725247</v>
       </c>
       <c r="C111">
-        <v>0.0032994783178470974</v>
+        <v>0.0019217326527475492</v>
       </c>
       <c r="D111">
         <v>1</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="9" t="s">
+      <c r="A112" s="11" t="s">
         <v>111</v>
       </c>
       <c r="B112">
-        <v>0.99548116908508799</v>
+        <v>0.9972850905640892</v>
       </c>
       <c r="C112">
-        <v>0.0045188309149120634</v>
+        <v>0.0027149094359107929</v>
       </c>
       <c r="D112">
         <v>1</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="9" t="s">
+      <c r="A113" s="11" t="s">
         <v>112</v>
       </c>
       <c r="B113">
-        <v>0.99575715031207224</v>
+        <v>0.99746673781433848</v>
       </c>
       <c r="C113">
-        <v>0.0042428496879277459</v>
+        <v>0.0025332621856615479</v>
       </c>
       <c r="D113">
         <v>1</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="9" t="s">
+      <c r="A114" s="11" t="s">
         <v>113</v>
       </c>
       <c r="B114">
-        <v>0.99315720313086742</v>
+        <v>0.99571583276449505</v>
       </c>
       <c r="C114">
-        <v>0.0068427968691325784</v>
+        <v>0.0042841672355049881</v>
       </c>
       <c r="D114">
         <v>1</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="9" t="s">
+      <c r="A115" s="11" t="s">
         <v>114</v>
       </c>
       <c r="B115">
-        <v>0.99693591894475064</v>
+        <v>0.99822832619718349</v>
       </c>
       <c r="C115">
-        <v>0.0030640810552493365</v>
+        <v>0.0017716738028165113</v>
       </c>
       <c r="D115">
         <v>1</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="9" t="s">
+      <c r="A116" s="11" t="s">
         <v>115</v>
       </c>
       <c r="B116">
-        <v>0.99266917161234747</v>
+        <v>0.99537859509561488</v>
       </c>
       <c r="C116">
-        <v>0.0073308283876524832</v>
+        <v>0.0046214049043851119</v>
       </c>
       <c r="D116">
         <v>1</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="9" t="s">
+      <c r="A117" s="11" t="s">
         <v>116</v>
       </c>
       <c r="B117">
-        <v>0.99198462470036552</v>
+        <v>0.99490170700550962</v>
       </c>
       <c r="C117">
-        <v>0.008015375299634522</v>
+        <v>0.0050982929944903303</v>
       </c>
       <c r="D117">
         <v>1</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="9" t="s">
+      <c r="A118" s="11" t="s">
         <v>117</v>
       </c>
       <c r="B118">
-        <v>0.99272005802448582</v>
+        <v>0.99541386832015055</v>
       </c>
       <c r="C118">
-        <v>0.0072799419755141962</v>
+        <v>0.0045861316798494825</v>
       </c>
       <c r="D118">
         <v>1</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="9" t="s">
+      <c r="A119" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B119">
-        <v>0.9920005113182031</v>
+        <v>0.99491282320805785</v>
       </c>
       <c r="C119">
-        <v>0.0079994886817968888</v>
+        <v>0.0050871767919421487</v>
       </c>
       <c r="D119">
         <v>1</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="9" t="s">
+      <c r="A120" s="11" t="s">
         <v>119</v>
       </c>
       <c r="B120">
-        <v>0.99249689603232005</v>
+        <v>0.99525899282047703</v>
       </c>
       <c r="C120">
-        <v>0.0075031039676799281</v>
+        <v>0.0047410071795230034</v>
       </c>
       <c r="D120">
         <v>1</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="9" t="s">
+      <c r="A121" s="11" t="s">
         <v>120</v>
       </c>
       <c r="B121">
-        <v>0.99687663878744748</v>
+        <v>0.99819064158421633</v>
       </c>
       <c r="C121">
-        <v>0.00312336121255256</v>
+        <v>0.0018093584157836656</v>
       </c>
       <c r="D121">
         <v>1</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="9" t="s">
+      <c r="A122" s="11" t="s">
         <v>121</v>
       </c>
       <c r="B122">
-        <v>0.99672669658864188</v>
+        <v>0.99809500727734768</v>
       </c>
       <c r="C122">
-        <v>0.0032733034113581298</v>
+        <v>0.0019049927226523565</v>
       </c>
       <c r="D122">
         <v>1</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="9" t="s">
+      <c r="A123" s="11" t="s">
         <v>122</v>
       </c>
       <c r="B123">
-        <v>0.99791297371605303</v>
+        <v>0.99883791286693646</v>
       </c>
       <c r="C123">
-        <v>0.0020870262839470183</v>
+        <v>0.0011620871330635866</v>
       </c>
       <c r="D123">
         <v>1</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="9" t="s">
+      <c r="A124" s="11" t="s">
         <v>123</v>
       </c>
       <c r="B124">
-        <v>0.99544124279560053</v>
+        <v>0.99725871754729056</v>
       </c>
       <c r="C124">
-        <v>0.0045587572043994194</v>
+        <v>0.0027412824527094475</v>
       </c>
       <c r="D124">
         <v>1</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="9" t="s">
+      <c r="A125" s="11" t="s">
         <v>124</v>
       </c>
       <c r="B125">
-        <v>0.9972911148847986</v>
+        <v>0.99845256171070118</v>
       </c>
       <c r="C125">
-        <v>0.0027088851152014147</v>
+        <v>0.0015474382892988086</v>
       </c>
       <c r="D125">
         <v>1</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="9" t="s">
+      <c r="A126" s="11" t="s">
         <v>125</v>
       </c>
       <c r="B126">
-        <v>0.9973614749133779</v>
+        <v>0.99849664589085285</v>
       </c>
       <c r="C126">
-        <v>0.0026385250866220534</v>
+        <v>0.0015033541091471914</v>
       </c>
       <c r="D126">
         <v>1</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="9" t="s">
+      <c r="A127" s="11" t="s">
         <v>126</v>
       </c>
       <c r="B127">
-        <v>0.99165132050913185</v>
+        <v>0.99466797132295715</v>
       </c>
       <c r="C127">
-        <v>0.0083486794908681876</v>
+        <v>0.0053320286770428289</v>
       </c>
       <c r="D127">
         <v>1</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="9" t="s">
+      <c r="A128" s="11" t="s">
         <v>127</v>
       </c>
       <c r="B128">
-        <v>0.99369294941597242</v>
+        <v>0.9960832209329944</v>
       </c>
       <c r="C128">
-        <v>0.0063070505840275952</v>
+        <v>0.0039167790670056055</v>
       </c>
       <c r="D128">
         <v>1</v>

--- a/outputs/test-Primates.xlsx
+++ b/outputs/test-Primates.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="131">
   <si>
     <t>Row</t>
   </si>
@@ -429,7 +429,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -449,11 +449,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -467,6 +469,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4100,21 +4104,21 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="13" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -4128,7 +4132,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -4142,7 +4146,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -4156,7 +4160,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -4170,7 +4174,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -4184,7 +4188,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -4198,7 +4202,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -4212,7 +4216,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -4226,7 +4230,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -4240,7 +4244,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -4254,7 +4258,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -4268,7 +4272,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -4282,7 +4286,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -4296,7 +4300,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -4310,7 +4314,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -4324,7 +4328,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -4338,7 +4342,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -4352,7 +4356,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -4366,7 +4370,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -4380,7 +4384,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -4394,7 +4398,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -4408,7 +4412,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -4422,7 +4426,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="13" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -4436,7 +4440,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -4450,7 +4454,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -4464,7 +4468,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -4478,7 +4482,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -4492,7 +4496,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -4506,7 +4510,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -4520,7 +4524,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -4534,7 +4538,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -4548,7 +4552,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -4562,7 +4566,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -4576,7 +4580,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="13" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -4590,7 +4594,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B36">
@@ -4604,7 +4608,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="13" t="s">
         <v>36</v>
       </c>
       <c r="B37">
@@ -4618,7 +4622,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="13" t="s">
         <v>37</v>
       </c>
       <c r="B38">
@@ -4632,7 +4636,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B39">
@@ -4646,7 +4650,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B40">
@@ -4660,7 +4664,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="13" t="s">
         <v>40</v>
       </c>
       <c r="B41">
@@ -4674,7 +4678,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="13" t="s">
         <v>41</v>
       </c>
       <c r="B42">
@@ -4688,7 +4692,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="13" t="s">
         <v>42</v>
       </c>
       <c r="B43">
@@ -4702,7 +4706,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B44">
@@ -4716,7 +4720,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="13" t="s">
         <v>44</v>
       </c>
       <c r="B45">
@@ -4730,7 +4734,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B46">
@@ -4744,7 +4748,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="13" t="s">
         <v>46</v>
       </c>
       <c r="B47">
@@ -4758,7 +4762,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B48">
@@ -4772,7 +4776,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B49">
@@ -4786,7 +4790,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="13" t="s">
         <v>49</v>
       </c>
       <c r="B50">
@@ -4800,7 +4804,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="13" t="s">
         <v>50</v>
       </c>
       <c r="B51">
@@ -4814,7 +4818,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="13" t="s">
         <v>51</v>
       </c>
       <c r="B52">
@@ -4828,7 +4832,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="13" t="s">
         <v>52</v>
       </c>
       <c r="B53">
@@ -4842,7 +4846,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="13" t="s">
         <v>53</v>
       </c>
       <c r="B54">
@@ -4856,7 +4860,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="13" t="s">
         <v>54</v>
       </c>
       <c r="B55">
@@ -4870,7 +4874,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="13" t="s">
         <v>55</v>
       </c>
       <c r="B56">
@@ -4884,7 +4888,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B57">
@@ -4898,7 +4902,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="13" t="s">
         <v>57</v>
       </c>
       <c r="B58">
@@ -4912,7 +4916,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B59">
@@ -4926,7 +4930,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="13" t="s">
         <v>59</v>
       </c>
       <c r="B60">
@@ -4940,7 +4944,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="13" t="s">
         <v>60</v>
       </c>
       <c r="B61">
@@ -4954,7 +4958,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="13" t="s">
         <v>61</v>
       </c>
       <c r="B62">
@@ -4968,7 +4972,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="13" t="s">
         <v>62</v>
       </c>
       <c r="B63">
@@ -4982,7 +4986,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="13" t="s">
         <v>63</v>
       </c>
       <c r="B64">
@@ -4996,7 +5000,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="13" t="s">
         <v>64</v>
       </c>
       <c r="B65">
@@ -5010,7 +5014,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="13" t="s">
         <v>65</v>
       </c>
       <c r="B66">
@@ -5024,7 +5028,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="s">
+      <c r="A67" s="13" t="s">
         <v>66</v>
       </c>
       <c r="B67">
@@ -5038,7 +5042,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="13" t="s">
         <v>67</v>
       </c>
       <c r="B68">
@@ -5052,7 +5056,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="13" t="s">
         <v>68</v>
       </c>
       <c r="B69">
@@ -5066,7 +5070,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="13" t="s">
         <v>69</v>
       </c>
       <c r="B70">
@@ -5080,7 +5084,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="11" t="s">
+      <c r="A71" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B71">
@@ -5094,7 +5098,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="11" t="s">
+      <c r="A72" s="13" t="s">
         <v>71</v>
       </c>
       <c r="B72">
@@ -5108,7 +5112,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="11" t="s">
+      <c r="A73" s="13" t="s">
         <v>72</v>
       </c>
       <c r="B73">
@@ -5122,7 +5126,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="11" t="s">
+      <c r="A74" s="13" t="s">
         <v>73</v>
       </c>
       <c r="B74">
@@ -5136,7 +5140,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="11" t="s">
+      <c r="A75" s="13" t="s">
         <v>74</v>
       </c>
       <c r="B75">
@@ -5150,7 +5154,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="11" t="s">
+      <c r="A76" s="13" t="s">
         <v>75</v>
       </c>
       <c r="B76">
@@ -5164,7 +5168,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="13" t="s">
         <v>76</v>
       </c>
       <c r="B77">
@@ -5178,7 +5182,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="11" t="s">
+      <c r="A78" s="13" t="s">
         <v>77</v>
       </c>
       <c r="B78">
@@ -5192,7 +5196,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="11" t="s">
+      <c r="A79" s="13" t="s">
         <v>78</v>
       </c>
       <c r="B79">
@@ -5206,7 +5210,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="11" t="s">
+      <c r="A80" s="13" t="s">
         <v>79</v>
       </c>
       <c r="B80">
@@ -5220,7 +5224,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="11" t="s">
+      <c r="A81" s="13" t="s">
         <v>80</v>
       </c>
       <c r="B81">
@@ -5234,7 +5238,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="11" t="s">
+      <c r="A82" s="13" t="s">
         <v>81</v>
       </c>
       <c r="B82">
@@ -5248,7 +5252,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="11" t="s">
+      <c r="A83" s="13" t="s">
         <v>82</v>
       </c>
       <c r="B83">
@@ -5262,7 +5266,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="11" t="s">
+      <c r="A84" s="13" t="s">
         <v>83</v>
       </c>
       <c r="B84">
@@ -5276,7 +5280,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="11" t="s">
+      <c r="A85" s="13" t="s">
         <v>84</v>
       </c>
       <c r="B85">
@@ -5290,7 +5294,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="11" t="s">
+      <c r="A86" s="13" t="s">
         <v>85</v>
       </c>
       <c r="B86">
@@ -5304,7 +5308,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="11" t="s">
+      <c r="A87" s="13" t="s">
         <v>86</v>
       </c>
       <c r="B87">
@@ -5318,7 +5322,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="11" t="s">
+      <c r="A88" s="13" t="s">
         <v>87</v>
       </c>
       <c r="B88">
@@ -5332,7 +5336,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="11" t="s">
+      <c r="A89" s="13" t="s">
         <v>88</v>
       </c>
       <c r="B89">
@@ -5346,7 +5350,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="11" t="s">
+      <c r="A90" s="13" t="s">
         <v>89</v>
       </c>
       <c r="B90">
@@ -5360,7 +5364,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="11" t="s">
+      <c r="A91" s="13" t="s">
         <v>90</v>
       </c>
       <c r="B91">
@@ -5374,7 +5378,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="11" t="s">
+      <c r="A92" s="13" t="s">
         <v>91</v>
       </c>
       <c r="B92">
@@ -5388,7 +5392,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="11" t="s">
+      <c r="A93" s="13" t="s">
         <v>92</v>
       </c>
       <c r="B93">
@@ -5402,7 +5406,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="11" t="s">
+      <c r="A94" s="13" t="s">
         <v>93</v>
       </c>
       <c r="B94">
@@ -5416,7 +5420,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="11" t="s">
+      <c r="A95" s="13" t="s">
         <v>94</v>
       </c>
       <c r="B95">
@@ -5430,7 +5434,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="11" t="s">
+      <c r="A96" s="13" t="s">
         <v>95</v>
       </c>
       <c r="B96">
@@ -5444,7 +5448,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="11" t="s">
+      <c r="A97" s="13" t="s">
         <v>96</v>
       </c>
       <c r="B97">
@@ -5458,7 +5462,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="11" t="s">
+      <c r="A98" s="13" t="s">
         <v>97</v>
       </c>
       <c r="B98">
@@ -5472,7 +5476,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="11" t="s">
+      <c r="A99" s="13" t="s">
         <v>98</v>
       </c>
       <c r="B99">
@@ -5486,7 +5490,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="11" t="s">
+      <c r="A100" s="13" t="s">
         <v>99</v>
       </c>
       <c r="B100">
@@ -5500,7 +5504,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="11" t="s">
+      <c r="A101" s="13" t="s">
         <v>100</v>
       </c>
       <c r="B101">
@@ -5514,7 +5518,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="11" t="s">
+      <c r="A102" s="13" t="s">
         <v>101</v>
       </c>
       <c r="B102">
@@ -5528,7 +5532,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="11" t="s">
+      <c r="A103" s="13" t="s">
         <v>102</v>
       </c>
       <c r="B103">
@@ -5542,7 +5546,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="11" t="s">
+      <c r="A104" s="13" t="s">
         <v>103</v>
       </c>
       <c r="B104">
@@ -5556,7 +5560,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="11" t="s">
+      <c r="A105" s="13" t="s">
         <v>104</v>
       </c>
       <c r="B105">
@@ -5570,7 +5574,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="11" t="s">
+      <c r="A106" s="13" t="s">
         <v>105</v>
       </c>
       <c r="B106">
@@ -5584,7 +5588,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="11" t="s">
+      <c r="A107" s="13" t="s">
         <v>106</v>
       </c>
       <c r="B107">
@@ -5598,7 +5602,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="11" t="s">
+      <c r="A108" s="13" t="s">
         <v>107</v>
       </c>
       <c r="B108">
@@ -5612,7 +5616,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="11" t="s">
+      <c r="A109" s="13" t="s">
         <v>108</v>
       </c>
       <c r="B109">
@@ -5626,7 +5630,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="11" t="s">
+      <c r="A110" s="13" t="s">
         <v>109</v>
       </c>
       <c r="B110">
@@ -5640,7 +5644,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="11" t="s">
+      <c r="A111" s="13" t="s">
         <v>110</v>
       </c>
       <c r="B111">
@@ -5654,7 +5658,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="11" t="s">
+      <c r="A112" s="13" t="s">
         <v>111</v>
       </c>
       <c r="B112">
@@ -5668,7 +5672,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="11" t="s">
+      <c r="A113" s="13" t="s">
         <v>112</v>
       </c>
       <c r="B113">
@@ -5682,7 +5686,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="11" t="s">
+      <c r="A114" s="13" t="s">
         <v>113</v>
       </c>
       <c r="B114">
@@ -5696,7 +5700,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="11" t="s">
+      <c r="A115" s="13" t="s">
         <v>114</v>
       </c>
       <c r="B115">
@@ -5710,7 +5714,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="11" t="s">
+      <c r="A116" s="13" t="s">
         <v>115</v>
       </c>
       <c r="B116">
@@ -5724,7 +5728,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="11" t="s">
+      <c r="A117" s="13" t="s">
         <v>116</v>
       </c>
       <c r="B117">
@@ -5738,7 +5742,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="11" t="s">
+      <c r="A118" s="13" t="s">
         <v>117</v>
       </c>
       <c r="B118">
@@ -5752,7 +5756,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="11" t="s">
+      <c r="A119" s="13" t="s">
         <v>118</v>
       </c>
       <c r="B119">
@@ -5766,7 +5770,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="11" t="s">
+      <c r="A120" s="13" t="s">
         <v>119</v>
       </c>
       <c r="B120">
@@ -5780,7 +5784,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="11" t="s">
+      <c r="A121" s="13" t="s">
         <v>120</v>
       </c>
       <c r="B121">
@@ -5794,7 +5798,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="11" t="s">
+      <c r="A122" s="13" t="s">
         <v>121</v>
       </c>
       <c r="B122">
@@ -5808,7 +5812,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="11" t="s">
+      <c r="A123" s="13" t="s">
         <v>122</v>
       </c>
       <c r="B123">
@@ -5822,7 +5826,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="11" t="s">
+      <c r="A124" s="13" t="s">
         <v>123</v>
       </c>
       <c r="B124">
@@ -5836,7 +5840,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="11" t="s">
+      <c r="A125" s="13" t="s">
         <v>124</v>
       </c>
       <c r="B125">
@@ -5850,7 +5854,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="11" t="s">
+      <c r="A126" s="13" t="s">
         <v>125</v>
       </c>
       <c r="B126">
@@ -5864,7 +5868,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="11" t="s">
+      <c r="A127" s="13" t="s">
         <v>126</v>
       </c>
       <c r="B127">
@@ -5878,7 +5882,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="11" t="s">
+      <c r="A128" s="13" t="s">
         <v>127</v>
       </c>
       <c r="B128">
